--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -858,7 +858,11 @@
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C26" s="17" t="inlineStr"/>
+      <c r="C26" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="11" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -551,7 +551,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R10" sqref="Q10:R13"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -781,7 +781,11 @@
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C19" s="17" t="inlineStr"/>
+      <c r="C19" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="11" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -704,7 +704,11 @@
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C12" s="17" t="inlineStr"/>
+      <c r="C12" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="11" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -892,7 +892,11 @@
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C28" s="17" t="inlineStr"/>
+      <c r="C28" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="11" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -52,7 +52,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -69,8 +69,13 @@
         <fgColor rgb="00ffb14a"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00eb972a"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -153,11 +158,32 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -203,6 +229,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,7 +580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
@@ -588,6 +620,7 @@
           <t>Minggu Ke-11</t>
         </is>
       </c>
+      <c r="D1" s="13" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="14" t="n"/>
@@ -597,6 +630,11 @@
           <t>Tugas 1</t>
         </is>
       </c>
+      <c r="D2" s="15" t="inlineStr">
+        <is>
+          <t>Tugas 2</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="16" t="n"/>
@@ -606,6 +644,11 @@
           <t>MAT11</t>
         </is>
       </c>
+      <c r="D3" s="17" t="inlineStr">
+        <is>
+          <t>BASDA3</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="11" t="n">
@@ -617,6 +660,7 @@
         </is>
       </c>
       <c r="C4" s="17" t="inlineStr"/>
+      <c r="D4" s="19" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="11" t="n">
@@ -628,6 +672,7 @@
         </is>
       </c>
       <c r="C5" s="17" t="inlineStr"/>
+      <c r="D5" s="19" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="11" t="n">
@@ -639,6 +684,7 @@
         </is>
       </c>
       <c r="C6" s="17" t="inlineStr"/>
+      <c r="D6" s="19" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="11" t="n">
@@ -650,6 +696,7 @@
         </is>
       </c>
       <c r="C7" s="17" t="inlineStr"/>
+      <c r="D7" s="19" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="11" t="n">
@@ -661,6 +708,7 @@
         </is>
       </c>
       <c r="C8" s="17" t="inlineStr"/>
+      <c r="D8" s="19" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="11" t="n">
@@ -672,6 +720,7 @@
         </is>
       </c>
       <c r="C9" s="17" t="inlineStr"/>
+      <c r="D9" s="19" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="11" t="n">
@@ -683,6 +732,7 @@
         </is>
       </c>
       <c r="C10" s="17" t="inlineStr"/>
+      <c r="D10" s="19" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="11" t="n">
@@ -694,6 +744,7 @@
         </is>
       </c>
       <c r="C11" s="17" t="inlineStr"/>
+      <c r="D11" s="19" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="11" t="n">
@@ -709,6 +760,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="D12" s="19" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="11" t="n">
@@ -720,6 +772,7 @@
         </is>
       </c>
       <c r="C13" s="17" t="inlineStr"/>
+      <c r="D13" s="19" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="11" t="n">
@@ -731,6 +784,7 @@
         </is>
       </c>
       <c r="C14" s="17" t="inlineStr"/>
+      <c r="D14" s="19" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="11" t="n">
@@ -742,6 +796,7 @@
         </is>
       </c>
       <c r="C15" s="17" t="inlineStr"/>
+      <c r="D15" s="19" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="11" t="n">
@@ -753,6 +808,7 @@
         </is>
       </c>
       <c r="C16" s="17" t="inlineStr"/>
+      <c r="D16" s="19" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="11" t="n">
@@ -764,6 +820,7 @@
         </is>
       </c>
       <c r="C17" s="17" t="inlineStr"/>
+      <c r="D17" s="19" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="11" t="n">
@@ -775,6 +832,7 @@
         </is>
       </c>
       <c r="C18" s="17" t="inlineStr"/>
+      <c r="D18" s="19" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="11" t="n">
@@ -790,6 +848,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="D19" s="19" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="11" t="n">
@@ -801,6 +860,7 @@
         </is>
       </c>
       <c r="C20" s="17" t="inlineStr"/>
+      <c r="D20" s="19" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="11" t="n">
@@ -812,6 +872,7 @@
         </is>
       </c>
       <c r="C21" s="17" t="inlineStr"/>
+      <c r="D21" s="19" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="11" t="n">
@@ -823,6 +884,7 @@
         </is>
       </c>
       <c r="C22" s="17" t="inlineStr"/>
+      <c r="D22" s="19" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="11" t="n">
@@ -834,6 +896,7 @@
         </is>
       </c>
       <c r="C23" s="17" t="inlineStr"/>
+      <c r="D23" s="19" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="11" t="n">
@@ -845,6 +908,7 @@
         </is>
       </c>
       <c r="C24" s="17" t="inlineStr"/>
+      <c r="D24" s="19" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="11" t="n">
@@ -856,6 +920,7 @@
         </is>
       </c>
       <c r="C25" s="17" t="inlineStr"/>
+      <c r="D25" s="19" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="11" t="n">
@@ -871,6 +936,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="D26" s="19" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="11" t="n">
@@ -882,6 +948,7 @@
         </is>
       </c>
       <c r="C27" s="17" t="inlineStr"/>
+      <c r="D27" s="19" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="11" t="n">
@@ -897,6 +964,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="D28" s="19" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="11" t="n">
@@ -908,6 +976,7 @@
         </is>
       </c>
       <c r="C29" s="17" t="inlineStr"/>
+      <c r="D29" s="19" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="11" t="n">
@@ -919,6 +988,7 @@
         </is>
       </c>
       <c r="C30" s="17" t="inlineStr"/>
+      <c r="D30" s="19" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="11" t="n">
@@ -930,6 +1000,7 @@
         </is>
       </c>
       <c r="C31" s="17" t="inlineStr"/>
+      <c r="D31" s="19" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="11" t="n">
@@ -941,6 +1012,7 @@
         </is>
       </c>
       <c r="C32" s="17" t="inlineStr"/>
+      <c r="D32" s="19" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="11" t="n">
@@ -952,6 +1024,7 @@
         </is>
       </c>
       <c r="C33" s="17" t="inlineStr"/>
+      <c r="D33" s="19" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="11" t="n">
@@ -963,6 +1036,7 @@
         </is>
       </c>
       <c r="C34" s="17" t="inlineStr"/>
+      <c r="D34" s="19" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="11" t="n">
@@ -974,6 +1048,7 @@
         </is>
       </c>
       <c r="C35" s="17" t="inlineStr"/>
+      <c r="D35" s="19" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="11" t="n">
@@ -989,6 +1064,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="D36" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="11" t="n">
@@ -1000,6 +1080,7 @@
         </is>
       </c>
       <c r="C37" s="17" t="inlineStr"/>
+      <c r="D37" s="19" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="11" t="n">
@@ -1011,12 +1092,13 @@
         </is>
       </c>
       <c r="C38" s="17" t="inlineStr"/>
+      <c r="D38" s="19" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -75,7 +75,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -179,11 +179,18 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -237,6 +244,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
@@ -621,6 +630,8 @@
         </is>
       </c>
       <c r="D1" s="13" t="n"/>
+      <c r="E1" s="13" t="n"/>
+      <c r="F1" s="13" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="14" t="n"/>
@@ -635,6 +646,16 @@
           <t>Tugas 2</t>
         </is>
       </c>
+      <c r="E2" s="15" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
+      <c r="F2" s="15" t="inlineStr">
+        <is>
+          <t>Tugas 4</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="16" t="n"/>
@@ -649,6 +670,16 @@
           <t>BASDA3</t>
         </is>
       </c>
+      <c r="E3" s="17" t="inlineStr">
+        <is>
+          <t>BING7</t>
+        </is>
+      </c>
+      <c r="F3" s="17" t="inlineStr">
+        <is>
+          <t>PAI11</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="11" t="n">
@@ -661,6 +692,8 @@
       </c>
       <c r="C4" s="17" t="inlineStr"/>
       <c r="D4" s="19" t="inlineStr"/>
+      <c r="E4" s="17" t="inlineStr"/>
+      <c r="F4" s="19" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="11" t="n">
@@ -673,6 +706,8 @@
       </c>
       <c r="C5" s="17" t="inlineStr"/>
       <c r="D5" s="19" t="inlineStr"/>
+      <c r="E5" s="17" t="inlineStr"/>
+      <c r="F5" s="19" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="11" t="n">
@@ -685,6 +720,8 @@
       </c>
       <c r="C6" s="17" t="inlineStr"/>
       <c r="D6" s="19" t="inlineStr"/>
+      <c r="E6" s="17" t="inlineStr"/>
+      <c r="F6" s="19" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="11" t="n">
@@ -697,6 +734,8 @@
       </c>
       <c r="C7" s="17" t="inlineStr"/>
       <c r="D7" s="19" t="inlineStr"/>
+      <c r="E7" s="17" t="inlineStr"/>
+      <c r="F7" s="19" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="11" t="n">
@@ -709,6 +748,8 @@
       </c>
       <c r="C8" s="17" t="inlineStr"/>
       <c r="D8" s="19" t="inlineStr"/>
+      <c r="E8" s="17" t="inlineStr"/>
+      <c r="F8" s="19" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="11" t="n">
@@ -721,6 +762,8 @@
       </c>
       <c r="C9" s="17" t="inlineStr"/>
       <c r="D9" s="19" t="inlineStr"/>
+      <c r="E9" s="17" t="inlineStr"/>
+      <c r="F9" s="19" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="11" t="n">
@@ -733,6 +776,8 @@
       </c>
       <c r="C10" s="17" t="inlineStr"/>
       <c r="D10" s="19" t="inlineStr"/>
+      <c r="E10" s="17" t="inlineStr"/>
+      <c r="F10" s="19" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="11" t="n">
@@ -745,6 +790,8 @@
       </c>
       <c r="C11" s="17" t="inlineStr"/>
       <c r="D11" s="19" t="inlineStr"/>
+      <c r="E11" s="17" t="inlineStr"/>
+      <c r="F11" s="19" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="11" t="n">
@@ -761,6 +808,8 @@
         </is>
       </c>
       <c r="D12" s="19" t="inlineStr"/>
+      <c r="E12" s="17" t="inlineStr"/>
+      <c r="F12" s="19" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="11" t="n">
@@ -773,6 +822,8 @@
       </c>
       <c r="C13" s="17" t="inlineStr"/>
       <c r="D13" s="19" t="inlineStr"/>
+      <c r="E13" s="17" t="inlineStr"/>
+      <c r="F13" s="19" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="11" t="n">
@@ -785,6 +836,8 @@
       </c>
       <c r="C14" s="17" t="inlineStr"/>
       <c r="D14" s="19" t="inlineStr"/>
+      <c r="E14" s="17" t="inlineStr"/>
+      <c r="F14" s="19" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="11" t="n">
@@ -797,6 +850,8 @@
       </c>
       <c r="C15" s="17" t="inlineStr"/>
       <c r="D15" s="19" t="inlineStr"/>
+      <c r="E15" s="17" t="inlineStr"/>
+      <c r="F15" s="19" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="11" t="n">
@@ -809,6 +864,8 @@
       </c>
       <c r="C16" s="17" t="inlineStr"/>
       <c r="D16" s="19" t="inlineStr"/>
+      <c r="E16" s="17" t="inlineStr"/>
+      <c r="F16" s="19" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="11" t="n">
@@ -821,6 +878,8 @@
       </c>
       <c r="C17" s="17" t="inlineStr"/>
       <c r="D17" s="19" t="inlineStr"/>
+      <c r="E17" s="17" t="inlineStr"/>
+      <c r="F17" s="19" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="11" t="n">
@@ -833,6 +892,8 @@
       </c>
       <c r="C18" s="17" t="inlineStr"/>
       <c r="D18" s="19" t="inlineStr"/>
+      <c r="E18" s="17" t="inlineStr"/>
+      <c r="F18" s="19" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="11" t="n">
@@ -849,6 +910,8 @@
         </is>
       </c>
       <c r="D19" s="19" t="inlineStr"/>
+      <c r="E19" s="17" t="inlineStr"/>
+      <c r="F19" s="19" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="11" t="n">
@@ -861,6 +924,8 @@
       </c>
       <c r="C20" s="17" t="inlineStr"/>
       <c r="D20" s="19" t="inlineStr"/>
+      <c r="E20" s="17" t="inlineStr"/>
+      <c r="F20" s="19" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="11" t="n">
@@ -873,6 +938,8 @@
       </c>
       <c r="C21" s="17" t="inlineStr"/>
       <c r="D21" s="19" t="inlineStr"/>
+      <c r="E21" s="17" t="inlineStr"/>
+      <c r="F21" s="19" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="11" t="n">
@@ -885,6 +952,8 @@
       </c>
       <c r="C22" s="17" t="inlineStr"/>
       <c r="D22" s="19" t="inlineStr"/>
+      <c r="E22" s="17" t="inlineStr"/>
+      <c r="F22" s="19" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="11" t="n">
@@ -897,6 +966,8 @@
       </c>
       <c r="C23" s="17" t="inlineStr"/>
       <c r="D23" s="19" t="inlineStr"/>
+      <c r="E23" s="17" t="inlineStr"/>
+      <c r="F23" s="19" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="11" t="n">
@@ -909,6 +980,8 @@
       </c>
       <c r="C24" s="17" t="inlineStr"/>
       <c r="D24" s="19" t="inlineStr"/>
+      <c r="E24" s="17" t="inlineStr"/>
+      <c r="F24" s="19" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="11" t="n">
@@ -921,6 +994,8 @@
       </c>
       <c r="C25" s="17" t="inlineStr"/>
       <c r="D25" s="19" t="inlineStr"/>
+      <c r="E25" s="17" t="inlineStr"/>
+      <c r="F25" s="19" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="11" t="n">
@@ -936,7 +1011,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D26" s="19" t="inlineStr"/>
+      <c r="D26" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E26" s="17" t="inlineStr"/>
+      <c r="F26" s="19" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="11" t="n">
@@ -949,6 +1030,8 @@
       </c>
       <c r="C27" s="17" t="inlineStr"/>
       <c r="D27" s="19" t="inlineStr"/>
+      <c r="E27" s="17" t="inlineStr"/>
+      <c r="F27" s="19" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="11" t="n">
@@ -965,6 +1048,8 @@
         </is>
       </c>
       <c r="D28" s="19" t="inlineStr"/>
+      <c r="E28" s="17" t="inlineStr"/>
+      <c r="F28" s="19" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="11" t="n">
@@ -977,6 +1062,8 @@
       </c>
       <c r="C29" s="17" t="inlineStr"/>
       <c r="D29" s="19" t="inlineStr"/>
+      <c r="E29" s="17" t="inlineStr"/>
+      <c r="F29" s="19" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="11" t="n">
@@ -989,6 +1076,8 @@
       </c>
       <c r="C30" s="17" t="inlineStr"/>
       <c r="D30" s="19" t="inlineStr"/>
+      <c r="E30" s="17" t="inlineStr"/>
+      <c r="F30" s="19" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="11" t="n">
@@ -1001,6 +1090,8 @@
       </c>
       <c r="C31" s="17" t="inlineStr"/>
       <c r="D31" s="19" t="inlineStr"/>
+      <c r="E31" s="17" t="inlineStr"/>
+      <c r="F31" s="19" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="11" t="n">
@@ -1011,8 +1102,18 @@
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C32" s="17" t="inlineStr"/>
-      <c r="D32" s="19" t="inlineStr"/>
+      <c r="C32" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D32" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E32" s="17" t="inlineStr"/>
+      <c r="F32" s="19" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="11" t="n">
@@ -1025,6 +1126,8 @@
       </c>
       <c r="C33" s="17" t="inlineStr"/>
       <c r="D33" s="19" t="inlineStr"/>
+      <c r="E33" s="17" t="inlineStr"/>
+      <c r="F33" s="19" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="11" t="n">
@@ -1037,6 +1140,8 @@
       </c>
       <c r="C34" s="17" t="inlineStr"/>
       <c r="D34" s="19" t="inlineStr"/>
+      <c r="E34" s="17" t="inlineStr"/>
+      <c r="F34" s="19" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="11" t="n">
@@ -1049,6 +1154,8 @@
       </c>
       <c r="C35" s="17" t="inlineStr"/>
       <c r="D35" s="19" t="inlineStr"/>
+      <c r="E35" s="17" t="inlineStr"/>
+      <c r="F35" s="19" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="11" t="n">
@@ -1069,6 +1176,8 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="E36" s="17" t="inlineStr"/>
+      <c r="F36" s="19" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="11" t="n">
@@ -1081,6 +1190,8 @@
       </c>
       <c r="C37" s="17" t="inlineStr"/>
       <c r="D37" s="19" t="inlineStr"/>
+      <c r="E37" s="17" t="inlineStr"/>
+      <c r="F37" s="19" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="11" t="n">
@@ -1093,12 +1204,14 @@
       </c>
       <c r="C38" s="17" t="inlineStr"/>
       <c r="D38" s="19" t="inlineStr"/>
+      <c r="E38" s="17" t="inlineStr"/>
+      <c r="F38" s="19" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -851,7 +851,11 @@
       <c r="C15" s="17" t="inlineStr"/>
       <c r="D15" s="19" t="inlineStr"/>
       <c r="E15" s="17" t="inlineStr"/>
-      <c r="F15" s="19" t="inlineStr"/>
+      <c r="F15" s="19" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="11" t="n">
@@ -911,7 +915,11 @@
       </c>
       <c r="D19" s="19" t="inlineStr"/>
       <c r="E19" s="17" t="inlineStr"/>
-      <c r="F19" s="19" t="inlineStr"/>
+      <c r="F19" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="11" t="n">
@@ -1031,7 +1039,11 @@
       <c r="C27" s="17" t="inlineStr"/>
       <c r="D27" s="19" t="inlineStr"/>
       <c r="E27" s="17" t="inlineStr"/>
-      <c r="F27" s="19" t="inlineStr"/>
+      <c r="F27" s="19" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="11" t="n">
@@ -1063,7 +1075,11 @@
       <c r="C29" s="17" t="inlineStr"/>
       <c r="D29" s="19" t="inlineStr"/>
       <c r="E29" s="17" t="inlineStr"/>
-      <c r="F29" s="19" t="inlineStr"/>
+      <c r="F29" s="19" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="11" t="n">
@@ -1077,7 +1093,11 @@
       <c r="C30" s="17" t="inlineStr"/>
       <c r="D30" s="19" t="inlineStr"/>
       <c r="E30" s="17" t="inlineStr"/>
-      <c r="F30" s="19" t="inlineStr"/>
+      <c r="F30" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="11" t="n">
@@ -1113,7 +1133,11 @@
         </is>
       </c>
       <c r="E32" s="17" t="inlineStr"/>
-      <c r="F32" s="19" t="inlineStr"/>
+      <c r="F32" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="11" t="n">
@@ -1205,7 +1229,11 @@
       <c r="C38" s="17" t="inlineStr"/>
       <c r="D38" s="19" t="inlineStr"/>
       <c r="E38" s="17" t="inlineStr"/>
-      <c r="F38" s="19" t="inlineStr"/>
+      <c r="F38" s="19" t="inlineStr">
+        <is>
+          <t>NON-MUS</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -693,7 +693,11 @@
       <c r="C4" s="17" t="inlineStr"/>
       <c r="D4" s="19" t="inlineStr"/>
       <c r="E4" s="17" t="inlineStr"/>
-      <c r="F4" s="19" t="inlineStr"/>
+      <c r="F4" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="11" t="n">
@@ -707,7 +711,11 @@
       <c r="C5" s="17" t="inlineStr"/>
       <c r="D5" s="19" t="inlineStr"/>
       <c r="E5" s="17" t="inlineStr"/>
-      <c r="F5" s="19" t="inlineStr"/>
+      <c r="F5" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="11" t="n">
@@ -721,7 +729,11 @@
       <c r="C6" s="17" t="inlineStr"/>
       <c r="D6" s="19" t="inlineStr"/>
       <c r="E6" s="17" t="inlineStr"/>
-      <c r="F6" s="19" t="inlineStr"/>
+      <c r="F6" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="11" t="n">
@@ -749,7 +761,11 @@
       <c r="C8" s="17" t="inlineStr"/>
       <c r="D8" s="19" t="inlineStr"/>
       <c r="E8" s="17" t="inlineStr"/>
-      <c r="F8" s="19" t="inlineStr"/>
+      <c r="F8" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="11" t="n">
@@ -777,7 +793,11 @@
       <c r="C10" s="17" t="inlineStr"/>
       <c r="D10" s="19" t="inlineStr"/>
       <c r="E10" s="17" t="inlineStr"/>
-      <c r="F10" s="19" t="inlineStr"/>
+      <c r="F10" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="11" t="n">
@@ -809,7 +829,11 @@
       </c>
       <c r="D12" s="19" t="inlineStr"/>
       <c r="E12" s="17" t="inlineStr"/>
-      <c r="F12" s="19" t="inlineStr"/>
+      <c r="F12" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="11" t="n">
@@ -848,7 +872,11 @@
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C15" s="17" t="inlineStr"/>
+      <c r="C15" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D15" s="19" t="inlineStr"/>
       <c r="E15" s="17" t="inlineStr"/>
       <c r="F15" s="19" t="inlineStr">
@@ -914,7 +942,11 @@
         </is>
       </c>
       <c r="D19" s="19" t="inlineStr"/>
-      <c r="E19" s="17" t="inlineStr"/>
+      <c r="E19" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F19" s="20" t="inlineStr">
         <is>
           <t>ü</t>
@@ -933,7 +965,11 @@
       <c r="C20" s="17" t="inlineStr"/>
       <c r="D20" s="19" t="inlineStr"/>
       <c r="E20" s="17" t="inlineStr"/>
-      <c r="F20" s="19" t="inlineStr"/>
+      <c r="F20" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="11" t="n">
@@ -961,7 +997,11 @@
       <c r="C22" s="17" t="inlineStr"/>
       <c r="D22" s="19" t="inlineStr"/>
       <c r="E22" s="17" t="inlineStr"/>
-      <c r="F22" s="19" t="inlineStr"/>
+      <c r="F22" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="11" t="n">
@@ -975,7 +1015,11 @@
       <c r="C23" s="17" t="inlineStr"/>
       <c r="D23" s="19" t="inlineStr"/>
       <c r="E23" s="17" t="inlineStr"/>
-      <c r="F23" s="19" t="inlineStr"/>
+      <c r="F23" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="11" t="n">
@@ -1003,7 +1047,11 @@
       <c r="C25" s="17" t="inlineStr"/>
       <c r="D25" s="19" t="inlineStr"/>
       <c r="E25" s="17" t="inlineStr"/>
-      <c r="F25" s="19" t="inlineStr"/>
+      <c r="F25" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="11" t="n">
@@ -1024,8 +1072,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E26" s="17" t="inlineStr"/>
-      <c r="F26" s="19" t="inlineStr"/>
+      <c r="E26" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F26" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="11" t="n">
@@ -1061,7 +1117,11 @@
       </c>
       <c r="D28" s="19" t="inlineStr"/>
       <c r="E28" s="17" t="inlineStr"/>
-      <c r="F28" s="19" t="inlineStr"/>
+      <c r="F28" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="11" t="n">
@@ -1132,7 +1192,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E32" s="17" t="inlineStr"/>
+      <c r="E32" s="18" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F32" s="20" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1165,7 +1229,11 @@
       <c r="C34" s="17" t="inlineStr"/>
       <c r="D34" s="19" t="inlineStr"/>
       <c r="E34" s="17" t="inlineStr"/>
-      <c r="F34" s="19" t="inlineStr"/>
+      <c r="F34" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="11" t="n">
@@ -1179,7 +1247,11 @@
       <c r="C35" s="17" t="inlineStr"/>
       <c r="D35" s="19" t="inlineStr"/>
       <c r="E35" s="17" t="inlineStr"/>
-      <c r="F35" s="19" t="inlineStr"/>
+      <c r="F35" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="11" t="n">
@@ -1201,7 +1273,11 @@
         </is>
       </c>
       <c r="E36" s="17" t="inlineStr"/>
-      <c r="F36" s="19" t="inlineStr"/>
+      <c r="F36" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="11" t="n">
@@ -1215,7 +1291,11 @@
       <c r="C37" s="17" t="inlineStr"/>
       <c r="D37" s="19" t="inlineStr"/>
       <c r="E37" s="17" t="inlineStr"/>
-      <c r="F37" s="19" t="inlineStr"/>
+      <c r="F37" s="20" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="11" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11520" yWindow="12" windowWidth="11484" windowHeight="10500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,6 +25,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Wingdings"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="12"/>
     </font>
@@ -38,10 +42,6 @@
       <sz val="14"/>
     </font>
     <font>
-      <name val="Wingdings"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <sz val="12"/>
     </font>
     <font>
@@ -52,7 +52,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -62,6 +62,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFB14A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEB972A"/>
       </patternFill>
     </fill>
     <fill>
@@ -129,6 +134,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -158,94 +207,72 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,17 +619,16 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="4.88671875" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="39.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="16.109375" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="9.109375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="10.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="9.109375" bestFit="1" customWidth="1" min="6" max="9"/>
+    <col width="9.109375" bestFit="1" customWidth="1" min="3" max="5"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="9.109375" bestFit="1" customWidth="1" min="7" max="9"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="9.109375" bestFit="1" customWidth="1" min="11" max="12"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="13" max="13"/>
@@ -614,702 +640,718 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>Nama Siswa</t>
         </is>
       </c>
-      <c r="C1" s="13" t="inlineStr">
+      <c r="C1" s="17" t="inlineStr">
         <is>
           <t>Minggu Ke-11</t>
         </is>
       </c>
-      <c r="D1" s="13" t="n"/>
-      <c r="E1" s="13" t="n"/>
-      <c r="F1" s="13" t="n"/>
+      <c r="D1" s="17" t="n"/>
+      <c r="E1" s="17" t="n"/>
+      <c r="F1" s="17" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="14" t="n"/>
-      <c r="B2" s="14" t="n"/>
-      <c r="C2" s="15" t="inlineStr">
+      <c r="A2" s="18" t="n"/>
+      <c r="B2" s="18" t="n"/>
+      <c r="C2" s="19" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
-      <c r="D2" s="15" t="inlineStr">
+      <c r="D2" s="19" t="inlineStr">
         <is>
           <t>Tugas 2</t>
         </is>
       </c>
-      <c r="E2" s="15" t="inlineStr">
+      <c r="E2" s="19" t="inlineStr">
         <is>
           <t>Tugas 3</t>
         </is>
       </c>
-      <c r="F2" s="15" t="inlineStr">
+      <c r="F2" s="19" t="inlineStr">
         <is>
           <t>Tugas 4</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="16" t="n"/>
-      <c r="B3" s="16" t="n"/>
-      <c r="C3" s="17" t="inlineStr">
+      <c r="A3" s="20" t="n"/>
+      <c r="B3" s="20" t="n"/>
+      <c r="C3" s="21" t="inlineStr">
         <is>
           <t>MAT11</t>
         </is>
       </c>
-      <c r="D3" s="17" t="inlineStr">
+      <c r="D3" s="21" t="inlineStr">
         <is>
           <t>BASDA3</t>
         </is>
       </c>
-      <c r="E3" s="17" t="inlineStr">
+      <c r="E3" s="21" t="inlineStr">
         <is>
           <t>BING7</t>
         </is>
       </c>
-      <c r="F3" s="17" t="inlineStr">
+      <c r="F3" s="21" t="inlineStr">
         <is>
           <t>PAI11</t>
         </is>
       </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="16" t="inlineStr">
         <is>
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C4" s="17" t="inlineStr"/>
-      <c r="D4" s="19" t="inlineStr"/>
-      <c r="E4" s="17" t="inlineStr"/>
-      <c r="F4" s="20" t="inlineStr">
+      <c r="C4" s="21" t="inlineStr"/>
+      <c r="D4" s="22" t="inlineStr"/>
+      <c r="E4" s="21" t="inlineStr"/>
+      <c r="F4" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="16" t="inlineStr">
         <is>
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C5" s="17" t="inlineStr"/>
-      <c r="D5" s="19" t="inlineStr"/>
-      <c r="E5" s="17" t="inlineStr"/>
-      <c r="F5" s="20" t="inlineStr">
+      <c r="C5" s="21" t="inlineStr"/>
+      <c r="D5" s="22" t="inlineStr"/>
+      <c r="E5" s="21" t="inlineStr"/>
+      <c r="F5" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="inlineStr">
+      <c r="B6" s="16" t="inlineStr">
         <is>
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C6" s="17" t="inlineStr"/>
-      <c r="D6" s="19" t="inlineStr"/>
-      <c r="E6" s="17" t="inlineStr"/>
-      <c r="F6" s="20" t="inlineStr">
+      <c r="C6" s="21" t="inlineStr"/>
+      <c r="D6" s="22" t="inlineStr"/>
+      <c r="E6" s="21" t="inlineStr"/>
+      <c r="F6" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="B7" s="16" t="inlineStr">
         <is>
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C7" s="17" t="inlineStr"/>
-      <c r="D7" s="19" t="inlineStr"/>
-      <c r="E7" s="17" t="inlineStr"/>
-      <c r="F7" s="19" t="inlineStr"/>
+      <c r="C7" s="21" t="inlineStr"/>
+      <c r="D7" s="22" t="inlineStr"/>
+      <c r="E7" s="21" t="inlineStr"/>
+      <c r="F7" s="22" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="12" t="inlineStr">
+      <c r="B8" s="16" t="inlineStr">
         <is>
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C8" s="17" t="inlineStr"/>
-      <c r="D8" s="19" t="inlineStr"/>
-      <c r="E8" s="17" t="inlineStr"/>
-      <c r="F8" s="20" t="inlineStr">
+      <c r="C8" s="21" t="inlineStr"/>
+      <c r="D8" s="22" t="inlineStr"/>
+      <c r="E8" s="21" t="inlineStr"/>
+      <c r="F8" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="9" ht="15.6" customHeight="1">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="inlineStr">
+      <c r="B9" s="16" t="inlineStr">
         <is>
           <t>Cleolia Jasmine Nasution</t>
         </is>
       </c>
-      <c r="C9" s="17" t="inlineStr"/>
-      <c r="D9" s="19" t="inlineStr"/>
-      <c r="E9" s="17" t="inlineStr"/>
-      <c r="F9" s="19" t="inlineStr"/>
+      <c r="C9" s="21" t="inlineStr"/>
+      <c r="D9" s="22" t="inlineStr"/>
+      <c r="E9" s="21" t="inlineStr"/>
+      <c r="F9" s="22" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="16" t="inlineStr">
         <is>
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C10" s="17" t="inlineStr"/>
-      <c r="D10" s="19" t="inlineStr"/>
-      <c r="E10" s="17" t="inlineStr"/>
-      <c r="F10" s="20" t="inlineStr">
+      <c r="C10" s="21" t="inlineStr"/>
+      <c r="D10" s="22" t="inlineStr"/>
+      <c r="E10" s="21" t="inlineStr"/>
+      <c r="F10" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="inlineStr">
+      <c r="B11" s="16" t="inlineStr">
         <is>
           <t>Dinda Fatchus Sabila Fa'izatur Rahmah</t>
         </is>
       </c>
-      <c r="C11" s="17" t="inlineStr"/>
-      <c r="D11" s="19" t="inlineStr"/>
-      <c r="E11" s="17" t="inlineStr"/>
-      <c r="F11" s="19" t="inlineStr"/>
+      <c r="C11" s="21" t="inlineStr"/>
+      <c r="D11" s="22" t="inlineStr"/>
+      <c r="E11" s="21" t="inlineStr"/>
+      <c r="F11" s="22" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="12" t="inlineStr">
+      <c r="B12" s="16" t="inlineStr">
         <is>
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C12" s="18" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D12" s="19" t="inlineStr"/>
-      <c r="E12" s="17" t="inlineStr"/>
-      <c r="F12" s="20" t="inlineStr">
+      <c r="C12" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D12" s="22" t="inlineStr"/>
+      <c r="E12" s="21" t="inlineStr"/>
+      <c r="F12" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="inlineStr">
+      <c r="B13" s="16" t="inlineStr">
         <is>
           <t>Farhan Nur Aliani</t>
         </is>
       </c>
-      <c r="C13" s="17" t="inlineStr"/>
-      <c r="D13" s="19" t="inlineStr"/>
-      <c r="E13" s="17" t="inlineStr"/>
-      <c r="F13" s="19" t="inlineStr"/>
+      <c r="C13" s="21" t="inlineStr"/>
+      <c r="D13" s="22" t="inlineStr"/>
+      <c r="E13" s="21" t="inlineStr"/>
+      <c r="F13" s="22" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="11" t="n">
+      <c r="A14" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="12" t="inlineStr">
+      <c r="B14" s="16" t="inlineStr">
         <is>
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C14" s="17" t="inlineStr"/>
-      <c r="D14" s="19" t="inlineStr"/>
-      <c r="E14" s="17" t="inlineStr"/>
-      <c r="F14" s="19" t="inlineStr"/>
+      <c r="C14" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D14" s="22" t="inlineStr"/>
+      <c r="E14" s="21" t="inlineStr"/>
+      <c r="F14" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="11" t="n">
+      <c r="A15" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="12" t="inlineStr">
+      <c r="B15" s="16" t="inlineStr">
         <is>
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C15" s="18" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D15" s="19" t="inlineStr"/>
-      <c r="E15" s="17" t="inlineStr"/>
-      <c r="F15" s="19" t="inlineStr">
+      <c r="C15" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D15" s="22" t="inlineStr"/>
+      <c r="E15" s="21" t="inlineStr"/>
+      <c r="F15" s="22" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="11" t="n">
+      <c r="A16" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="12" t="inlineStr">
+      <c r="B16" s="16" t="inlineStr">
         <is>
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C16" s="17" t="inlineStr"/>
-      <c r="D16" s="19" t="inlineStr"/>
-      <c r="E16" s="17" t="inlineStr"/>
-      <c r="F16" s="19" t="inlineStr"/>
+      <c r="C16" s="21" t="inlineStr"/>
+      <c r="D16" s="22" t="inlineStr"/>
+      <c r="E16" s="21" t="inlineStr"/>
+      <c r="F16" s="22" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="11" t="n">
+      <c r="A17" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="12" t="inlineStr">
+      <c r="B17" s="16" t="inlineStr">
         <is>
           <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
         </is>
       </c>
-      <c r="C17" s="17" t="inlineStr"/>
-      <c r="D17" s="19" t="inlineStr"/>
-      <c r="E17" s="17" t="inlineStr"/>
-      <c r="F17" s="19" t="inlineStr"/>
+      <c r="C17" s="21" t="inlineStr"/>
+      <c r="D17" s="22" t="inlineStr"/>
+      <c r="E17" s="21" t="inlineStr"/>
+      <c r="F17" s="22" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
-      <c r="A18" s="11" t="n">
+      <c r="A18" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="12" t="inlineStr">
+      <c r="B18" s="16" t="inlineStr">
         <is>
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C18" s="17" t="inlineStr"/>
-      <c r="D18" s="19" t="inlineStr"/>
-      <c r="E18" s="17" t="inlineStr"/>
-      <c r="F18" s="19" t="inlineStr"/>
+      <c r="C18" s="21" t="inlineStr"/>
+      <c r="D18" s="22" t="inlineStr"/>
+      <c r="E18" s="21" t="inlineStr"/>
+      <c r="F18" s="22" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
-      <c r="A19" s="11" t="n">
+      <c r="A19" s="15" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="12" t="inlineStr">
+      <c r="B19" s="16" t="inlineStr">
         <is>
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C19" s="18" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D19" s="19" t="inlineStr"/>
-      <c r="E19" s="18" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F19" s="20" t="inlineStr">
+      <c r="C19" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D19" s="22" t="inlineStr"/>
+      <c r="E19" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F19" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" s="11" t="n">
+      <c r="A20" s="15" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="12" t="inlineStr">
+      <c r="B20" s="16" t="inlineStr">
         <is>
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C20" s="17" t="inlineStr"/>
-      <c r="D20" s="19" t="inlineStr"/>
-      <c r="E20" s="17" t="inlineStr"/>
-      <c r="F20" s="20" t="inlineStr">
+      <c r="C20" s="21" t="inlineStr"/>
+      <c r="D20" s="22" t="inlineStr"/>
+      <c r="E20" s="21" t="inlineStr"/>
+      <c r="F20" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" s="11" t="n">
+      <c r="A21" s="15" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="12" t="inlineStr">
+      <c r="B21" s="16" t="inlineStr">
         <is>
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C21" s="17" t="inlineStr"/>
-      <c r="D21" s="19" t="inlineStr"/>
-      <c r="E21" s="17" t="inlineStr"/>
-      <c r="F21" s="19" t="inlineStr"/>
+      <c r="C21" s="21" t="inlineStr"/>
+      <c r="D21" s="22" t="inlineStr"/>
+      <c r="E21" s="21" t="inlineStr"/>
+      <c r="F21" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.6" customHeight="1">
-      <c r="A22" s="11" t="n">
+      <c r="A22" s="15" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="12" t="inlineStr">
+      <c r="B22" s="16" t="inlineStr">
         <is>
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C22" s="17" t="inlineStr"/>
-      <c r="D22" s="19" t="inlineStr"/>
-      <c r="E22" s="17" t="inlineStr"/>
-      <c r="F22" s="20" t="inlineStr">
+      <c r="C22" s="21" t="inlineStr"/>
+      <c r="D22" s="22" t="inlineStr"/>
+      <c r="E22" s="21" t="inlineStr"/>
+      <c r="F22" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="11" t="n">
+      <c r="A23" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="12" t="inlineStr">
+      <c r="B23" s="16" t="inlineStr">
         <is>
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C23" s="17" t="inlineStr"/>
-      <c r="D23" s="19" t="inlineStr"/>
-      <c r="E23" s="17" t="inlineStr"/>
-      <c r="F23" s="20" t="inlineStr">
+      <c r="C23" s="21" t="inlineStr"/>
+      <c r="D23" s="22" t="inlineStr"/>
+      <c r="E23" s="21" t="inlineStr"/>
+      <c r="F23" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="11" t="n">
+      <c r="A24" s="15" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="12" t="inlineStr">
+      <c r="B24" s="16" t="inlineStr">
         <is>
           <t>Muhammad Yusuf</t>
         </is>
       </c>
-      <c r="C24" s="17" t="inlineStr"/>
-      <c r="D24" s="19" t="inlineStr"/>
-      <c r="E24" s="17" t="inlineStr"/>
-      <c r="F24" s="19" t="inlineStr"/>
+      <c r="C24" s="21" t="inlineStr"/>
+      <c r="D24" s="22" t="inlineStr"/>
+      <c r="E24" s="21" t="inlineStr"/>
+      <c r="F24" s="22" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="11" t="n">
+      <c r="A25" s="15" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="12" t="inlineStr">
+      <c r="B25" s="16" t="inlineStr">
         <is>
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C25" s="17" t="inlineStr"/>
-      <c r="D25" s="19" t="inlineStr"/>
-      <c r="E25" s="17" t="inlineStr"/>
-      <c r="F25" s="20" t="inlineStr">
+      <c r="C25" s="21" t="inlineStr"/>
+      <c r="D25" s="22" t="inlineStr"/>
+      <c r="E25" s="21" t="inlineStr"/>
+      <c r="F25" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="11" t="n">
+      <c r="A26" s="15" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="12" t="inlineStr">
+      <c r="B26" s="16" t="inlineStr">
         <is>
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C26" s="18" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D26" s="20" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E26" s="18" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F26" s="20" t="inlineStr">
+      <c r="C26" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D26" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E26" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F26" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="11" t="n">
+      <c r="A27" s="15" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="12" t="inlineStr">
+      <c r="B27" s="16" t="inlineStr">
         <is>
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C27" s="17" t="inlineStr"/>
-      <c r="D27" s="19" t="inlineStr"/>
-      <c r="E27" s="17" t="inlineStr"/>
-      <c r="F27" s="19" t="inlineStr">
+      <c r="C27" s="21" t="inlineStr"/>
+      <c r="D27" s="22" t="inlineStr"/>
+      <c r="E27" s="21" t="inlineStr"/>
+      <c r="F27" s="22" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="11" t="n">
+      <c r="A28" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="12" t="inlineStr">
+      <c r="B28" s="16" t="inlineStr">
         <is>
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C28" s="18" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D28" s="19" t="inlineStr"/>
-      <c r="E28" s="17" t="inlineStr"/>
-      <c r="F28" s="20" t="inlineStr">
+      <c r="C28" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D28" s="22" t="inlineStr"/>
+      <c r="E28" s="21" t="inlineStr"/>
+      <c r="F28" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="11" t="n">
+      <c r="A29" s="15" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="12" t="inlineStr">
+      <c r="B29" s="16" t="inlineStr">
         <is>
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C29" s="17" t="inlineStr"/>
-      <c r="D29" s="19" t="inlineStr"/>
-      <c r="E29" s="17" t="inlineStr"/>
-      <c r="F29" s="19" t="inlineStr">
+      <c r="C29" s="21" t="inlineStr"/>
+      <c r="D29" s="22" t="inlineStr"/>
+      <c r="E29" s="21" t="inlineStr"/>
+      <c r="F29" s="22" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="11" t="n">
+      <c r="A30" s="15" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="12" t="inlineStr">
+      <c r="B30" s="16" t="inlineStr">
         <is>
           <t>Rafli Febryan</t>
         </is>
       </c>
-      <c r="C30" s="17" t="inlineStr"/>
-      <c r="D30" s="19" t="inlineStr"/>
-      <c r="E30" s="17" t="inlineStr"/>
-      <c r="F30" s="20" t="inlineStr">
+      <c r="C30" s="21" t="inlineStr"/>
+      <c r="D30" s="22" t="inlineStr"/>
+      <c r="E30" s="21" t="inlineStr"/>
+      <c r="F30" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="11" t="n">
+      <c r="A31" s="15" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="12" t="inlineStr">
+      <c r="B31" s="16" t="inlineStr">
         <is>
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C31" s="17" t="inlineStr"/>
-      <c r="D31" s="19" t="inlineStr"/>
-      <c r="E31" s="17" t="inlineStr"/>
-      <c r="F31" s="19" t="inlineStr"/>
+      <c r="C31" s="21" t="inlineStr"/>
+      <c r="D31" s="22" t="inlineStr"/>
+      <c r="E31" s="21" t="inlineStr"/>
+      <c r="F31" s="22" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="11" t="n">
+      <c r="A32" s="15" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="12" t="inlineStr">
+      <c r="B32" s="16" t="inlineStr">
         <is>
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C32" s="18" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D32" s="20" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E32" s="18" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F32" s="20" t="inlineStr">
+      <c r="C32" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D32" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E32" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F32" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="11" t="n">
+      <c r="A33" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="12" t="inlineStr">
+      <c r="B33" s="16" t="inlineStr">
         <is>
           <t>Salsabila Nur Fairuz</t>
         </is>
       </c>
-      <c r="C33" s="17" t="inlineStr"/>
-      <c r="D33" s="19" t="inlineStr"/>
-      <c r="E33" s="17" t="inlineStr"/>
-      <c r="F33" s="19" t="inlineStr"/>
+      <c r="C33" s="21" t="inlineStr"/>
+      <c r="D33" s="22" t="inlineStr"/>
+      <c r="E33" s="21" t="inlineStr"/>
+      <c r="F33" s="22" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="11" t="n">
+      <c r="A34" s="15" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="12" t="inlineStr">
+      <c r="B34" s="16" t="inlineStr">
         <is>
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C34" s="17" t="inlineStr"/>
-      <c r="D34" s="19" t="inlineStr"/>
-      <c r="E34" s="17" t="inlineStr"/>
-      <c r="F34" s="20" t="inlineStr">
+      <c r="C34" s="21" t="inlineStr"/>
+      <c r="D34" s="22" t="inlineStr"/>
+      <c r="E34" s="21" t="inlineStr"/>
+      <c r="F34" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="11" t="n">
+      <c r="A35" s="15" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="12" t="inlineStr">
+      <c r="B35" s="16" t="inlineStr">
         <is>
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C35" s="17" t="inlineStr"/>
-      <c r="D35" s="19" t="inlineStr"/>
-      <c r="E35" s="17" t="inlineStr"/>
-      <c r="F35" s="20" t="inlineStr">
+      <c r="C35" s="21" t="inlineStr"/>
+      <c r="D35" s="22" t="inlineStr"/>
+      <c r="E35" s="21" t="inlineStr"/>
+      <c r="F35" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" s="11" t="n">
+      <c r="A36" s="15" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="12" t="inlineStr">
+      <c r="B36" s="16" t="inlineStr">
         <is>
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C36" s="18" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D36" s="20" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E36" s="17" t="inlineStr"/>
-      <c r="F36" s="20" t="inlineStr">
+      <c r="C36" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D36" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E36" s="21" t="inlineStr"/>
+      <c r="F36" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
-      <c r="A37" s="11" t="n">
+      <c r="A37" s="15" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="12" t="inlineStr">
+      <c r="B37" s="16" t="inlineStr">
         <is>
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C37" s="17" t="inlineStr"/>
-      <c r="D37" s="19" t="inlineStr"/>
-      <c r="E37" s="17" t="inlineStr"/>
-      <c r="F37" s="20" t="inlineStr">
+      <c r="C37" s="21" t="inlineStr"/>
+      <c r="D37" s="22" t="inlineStr"/>
+      <c r="E37" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F37" s="23" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="38" ht="15.6" customHeight="1">
-      <c r="A38" s="11" t="n">
+      <c r="A38" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="B38" s="12" t="inlineStr">
+      <c r="B38" s="16" t="inlineStr">
         <is>
           <t>Yehezkiel Dio Sinolungan</t>
         </is>
       </c>
-      <c r="C38" s="17" t="inlineStr"/>
-      <c r="D38" s="19" t="inlineStr"/>
-      <c r="E38" s="17" t="inlineStr"/>
-      <c r="F38" s="19" t="inlineStr">
+      <c r="C38" s="21" t="inlineStr"/>
+      <c r="D38" s="22" t="inlineStr"/>
+      <c r="E38" s="21" t="inlineStr"/>
+      <c r="F38" s="22" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -80,7 +80,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -207,11 +207,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -273,6 +301,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,7 +884,11 @@
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr"/>
-      <c r="E12" s="21" t="inlineStr"/>
+      <c r="E12" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F12" s="23" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -814,7 +814,11 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C8" s="21" t="inlineStr"/>
+      <c r="C8" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D8" s="22" t="inlineStr"/>
       <c r="E8" s="21" t="inlineStr"/>
       <c r="F8" s="23" t="inlineStr">
@@ -1030,7 +1034,11 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C20" s="21" t="inlineStr"/>
+      <c r="C20" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D20" s="22" t="inlineStr"/>
       <c r="E20" s="21" t="inlineStr"/>
       <c r="F20" s="23" t="inlineStr">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -782,7 +782,11 @@
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C6" s="21" t="inlineStr"/>
+      <c r="C6" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D6" s="22" t="inlineStr"/>
       <c r="E6" s="21" t="inlineStr"/>
       <c r="F6" s="23" t="inlineStr">
@@ -814,11 +818,7 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C8" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C8" s="21" t="inlineStr"/>
       <c r="D8" s="22" t="inlineStr"/>
       <c r="E8" s="21" t="inlineStr"/>
       <c r="F8" s="23" t="inlineStr">
@@ -850,7 +850,11 @@
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C10" s="21" t="inlineStr"/>
+      <c r="C10" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D10" s="22" t="inlineStr"/>
       <c r="E10" s="21" t="inlineStr"/>
       <c r="F10" s="23" t="inlineStr">
@@ -1034,11 +1038,7 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C20" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C20" s="21" t="inlineStr"/>
       <c r="D20" s="22" t="inlineStr"/>
       <c r="E20" s="21" t="inlineStr"/>
       <c r="F20" s="23" t="inlineStr">
@@ -1124,7 +1124,11 @@
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C25" s="21" t="inlineStr"/>
+      <c r="C25" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D25" s="22" t="inlineStr"/>
       <c r="E25" s="21" t="inlineStr"/>
       <c r="F25" s="23" t="inlineStr">
@@ -1212,7 +1216,11 @@
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C29" s="21" t="inlineStr"/>
+      <c r="C29" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D29" s="22" t="inlineStr"/>
       <c r="E29" s="21" t="inlineStr"/>
       <c r="F29" s="22" t="inlineStr">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -746,9 +746,21 @@
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C4" s="21" t="inlineStr"/>
-      <c r="D4" s="22" t="inlineStr"/>
-      <c r="E4" s="21" t="inlineStr"/>
+      <c r="C4" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D4" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E4" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F4" s="23" t="inlineStr">
         <is>
           <t>ü</t>
@@ -818,7 +830,11 @@
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C8" s="21" t="inlineStr"/>
+      <c r="C8" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D8" s="22" t="inlineStr"/>
       <c r="E8" s="21" t="inlineStr"/>
       <c r="F8" s="23" t="inlineStr">
@@ -839,7 +855,11 @@
       <c r="C9" s="21" t="inlineStr"/>
       <c r="D9" s="22" t="inlineStr"/>
       <c r="E9" s="21" t="inlineStr"/>
-      <c r="F9" s="22" t="inlineStr"/>
+      <c r="F9" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="15" t="n">
@@ -1038,7 +1058,11 @@
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C20" s="21" t="inlineStr"/>
+      <c r="C20" s="24" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D20" s="22" t="inlineStr"/>
       <c r="E20" s="21" t="inlineStr"/>
       <c r="F20" s="23" t="inlineStr">
@@ -1259,7 +1283,11 @@
       <c r="C31" s="21" t="inlineStr"/>
       <c r="D31" s="22" t="inlineStr"/>
       <c r="E31" s="21" t="inlineStr"/>
-      <c r="F31" s="22" t="inlineStr"/>
+      <c r="F31" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="15" t="n">
@@ -1303,7 +1331,11 @@
       <c r="C33" s="21" t="inlineStr"/>
       <c r="D33" s="22" t="inlineStr"/>
       <c r="E33" s="21" t="inlineStr"/>
-      <c r="F33" s="22" t="inlineStr"/>
+      <c r="F33" s="23" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="15" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11520" yWindow="12" windowWidth="11484" windowHeight="10500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -52,7 +52,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -71,7 +71,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92FF8A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ffb14a"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092ff8a"/>
       </patternFill>
     </fill>
     <fill>
@@ -80,7 +90,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -207,39 +217,11 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -253,13 +235,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -270,6 +258,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -281,28 +272,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,10 +644,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F5" sqref="A1:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -658,7 +656,8 @@
     <col width="39.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="9.109375" bestFit="1" customWidth="1" min="3" max="5"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="9.109375" bestFit="1" customWidth="1" min="7" max="9"/>
+    <col width="16.109375" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="9.109375" bestFit="1" customWidth="1" min="8" max="9"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="9.109375" bestFit="1" customWidth="1" min="11" max="12"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="13" max="13"/>
@@ -670,780 +669,843 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>Nama Siswa</t>
         </is>
       </c>
-      <c r="C1" s="17" t="inlineStr">
+      <c r="C1" s="20" t="inlineStr">
         <is>
           <t>Minggu Ke-11</t>
         </is>
       </c>
-      <c r="D1" s="17" t="n"/>
-      <c r="E1" s="17" t="n"/>
-      <c r="F1" s="17" t="n"/>
+      <c r="D1" s="20" t="n"/>
+      <c r="E1" s="20" t="n"/>
+      <c r="F1" s="20" t="n"/>
+      <c r="G1" s="21" t="inlineStr">
+        <is>
+          <t>Minggu Ke-12</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="18" t="n"/>
-      <c r="B2" s="18" t="n"/>
-      <c r="C2" s="19" t="inlineStr">
+      <c r="A2" s="22" t="n"/>
+      <c r="B2" s="22" t="n"/>
+      <c r="C2" s="23" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
-      <c r="D2" s="19" t="inlineStr">
+      <c r="D2" s="23" t="inlineStr">
         <is>
           <t>Tugas 2</t>
         </is>
       </c>
-      <c r="E2" s="19" t="inlineStr">
+      <c r="E2" s="23" t="inlineStr">
         <is>
           <t>Tugas 3</t>
         </is>
       </c>
-      <c r="F2" s="19" t="inlineStr">
+      <c r="F2" s="23" t="inlineStr">
         <is>
           <t>Tugas 4</t>
         </is>
       </c>
+      <c r="G2" s="24" t="inlineStr">
+        <is>
+          <t>Tugas 1</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="20" t="n"/>
-      <c r="B3" s="20" t="n"/>
-      <c r="C3" s="21" t="inlineStr">
+      <c r="A3" s="25" t="n"/>
+      <c r="B3" s="25" t="n"/>
+      <c r="C3" s="26" t="inlineStr">
         <is>
           <t>MAT11</t>
         </is>
       </c>
-      <c r="D3" s="21" t="inlineStr">
+      <c r="D3" s="26" t="inlineStr">
         <is>
           <t>BASDA3</t>
         </is>
       </c>
-      <c r="E3" s="21" t="inlineStr">
+      <c r="E3" s="26" t="inlineStr">
         <is>
           <t>BING7</t>
         </is>
       </c>
-      <c r="F3" s="21" t="inlineStr">
+      <c r="F3" s="26" t="inlineStr">
         <is>
           <t>PAI11</t>
         </is>
       </c>
+      <c r="G3" s="27" t="inlineStr">
+        <is>
+          <t>MAT12</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="15" t="n">
+      <c r="A4" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="inlineStr">
+      <c r="B4" s="19" t="inlineStr">
         <is>
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C4" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D4" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E4" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F4" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D4" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E4" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F4" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G4" s="27" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="15" t="n">
+      <c r="A5" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="inlineStr">
+      <c r="B5" s="19" t="inlineStr">
         <is>
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C5" s="21" t="inlineStr"/>
-      <c r="D5" s="22" t="inlineStr"/>
-      <c r="E5" s="21" t="inlineStr"/>
-      <c r="F5" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C5" s="26" t="inlineStr"/>
+      <c r="D5" s="30" t="inlineStr"/>
+      <c r="E5" s="26" t="inlineStr"/>
+      <c r="F5" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G5" s="27" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="15" t="n">
+      <c r="A6" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="inlineStr">
+      <c r="B6" s="19" t="inlineStr">
         <is>
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C6" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D6" s="22" t="inlineStr"/>
-      <c r="E6" s="21" t="inlineStr"/>
-      <c r="F6" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C6" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D6" s="30" t="inlineStr"/>
+      <c r="E6" s="26" t="inlineStr"/>
+      <c r="F6" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G6" s="27" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="15" t="n">
+      <c r="A7" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="inlineStr">
+      <c r="B7" s="19" t="inlineStr">
         <is>
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C7" s="21" t="inlineStr"/>
-      <c r="D7" s="22" t="inlineStr"/>
-      <c r="E7" s="21" t="inlineStr"/>
-      <c r="F7" s="22" t="inlineStr"/>
+      <c r="C7" s="26" t="inlineStr"/>
+      <c r="D7" s="30" t="inlineStr"/>
+      <c r="E7" s="26" t="inlineStr"/>
+      <c r="F7" s="30" t="inlineStr"/>
+      <c r="G7" s="27" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="15" t="n">
+      <c r="A8" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="inlineStr">
+      <c r="B8" s="19" t="inlineStr">
         <is>
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C8" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D8" s="22" t="inlineStr"/>
-      <c r="E8" s="21" t="inlineStr"/>
-      <c r="F8" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C8" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D8" s="30" t="inlineStr"/>
+      <c r="E8" s="26" t="inlineStr"/>
+      <c r="F8" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G8" s="27" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
-      <c r="A9" s="15" t="n">
+      <c r="A9" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="inlineStr">
+      <c r="B9" s="19" t="inlineStr">
         <is>
           <t>Cleolia Jasmine Nasution</t>
         </is>
       </c>
-      <c r="C9" s="21" t="inlineStr"/>
-      <c r="D9" s="22" t="inlineStr"/>
-      <c r="E9" s="21" t="inlineStr"/>
-      <c r="F9" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C9" s="26" t="inlineStr"/>
+      <c r="D9" s="30" t="inlineStr"/>
+      <c r="E9" s="26" t="inlineStr"/>
+      <c r="F9" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G9" s="27" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="15" t="n">
+      <c r="A10" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="16" t="inlineStr">
+      <c r="B10" s="19" t="inlineStr">
         <is>
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C10" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D10" s="22" t="inlineStr"/>
-      <c r="E10" s="21" t="inlineStr"/>
-      <c r="F10" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C10" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D10" s="30" t="inlineStr"/>
+      <c r="E10" s="26" t="inlineStr"/>
+      <c r="F10" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G10" s="27" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="15" t="n">
+      <c r="A11" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="inlineStr">
+      <c r="B11" s="19" t="inlineStr">
         <is>
           <t>Dinda Fatchus Sabila Fa'izatur Rahmah</t>
         </is>
       </c>
-      <c r="C11" s="21" t="inlineStr"/>
-      <c r="D11" s="22" t="inlineStr"/>
-      <c r="E11" s="21" t="inlineStr"/>
-      <c r="F11" s="22" t="inlineStr"/>
+      <c r="C11" s="26" t="inlineStr"/>
+      <c r="D11" s="30" t="inlineStr"/>
+      <c r="E11" s="26" t="inlineStr"/>
+      <c r="F11" s="30" t="inlineStr"/>
+      <c r="G11" s="27" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="15" t="n">
+      <c r="A12" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="16" t="inlineStr">
+      <c r="B12" s="19" t="inlineStr">
         <is>
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C12" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D12" s="22" t="inlineStr"/>
-      <c r="E12" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F12" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C12" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D12" s="30" t="inlineStr"/>
+      <c r="E12" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F12" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G12" s="27" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="15" t="n">
+      <c r="A13" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="inlineStr">
+      <c r="B13" s="19" t="inlineStr">
         <is>
           <t>Farhan Nur Aliani</t>
         </is>
       </c>
-      <c r="C13" s="21" t="inlineStr"/>
-      <c r="D13" s="22" t="inlineStr"/>
-      <c r="E13" s="21" t="inlineStr"/>
-      <c r="F13" s="22" t="inlineStr"/>
+      <c r="C13" s="26" t="inlineStr"/>
+      <c r="D13" s="30" t="inlineStr"/>
+      <c r="E13" s="26" t="inlineStr"/>
+      <c r="F13" s="30" t="inlineStr"/>
+      <c r="G13" s="27" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="15" t="n">
+      <c r="A14" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="inlineStr">
+      <c r="B14" s="19" t="inlineStr">
         <is>
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C14" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D14" s="22" t="inlineStr"/>
-      <c r="E14" s="21" t="inlineStr"/>
-      <c r="F14" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C14" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D14" s="30" t="inlineStr"/>
+      <c r="E14" s="26" t="inlineStr"/>
+      <c r="F14" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G14" s="27" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="15" t="n">
+      <c r="A15" s="18" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="16" t="inlineStr">
+      <c r="B15" s="19" t="inlineStr">
         <is>
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C15" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D15" s="22" t="inlineStr"/>
-      <c r="E15" s="21" t="inlineStr"/>
-      <c r="F15" s="22" t="inlineStr">
+      <c r="C15" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D15" s="30" t="inlineStr"/>
+      <c r="E15" s="26" t="inlineStr"/>
+      <c r="F15" s="30" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
+      <c r="G15" s="27" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="15" t="n">
+      <c r="A16" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="16" t="inlineStr">
+      <c r="B16" s="19" t="inlineStr">
         <is>
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C16" s="21" t="inlineStr"/>
-      <c r="D16" s="22" t="inlineStr"/>
-      <c r="E16" s="21" t="inlineStr"/>
-      <c r="F16" s="22" t="inlineStr"/>
+      <c r="C16" s="26" t="inlineStr"/>
+      <c r="D16" s="30" t="inlineStr"/>
+      <c r="E16" s="26" t="inlineStr"/>
+      <c r="F16" s="30" t="inlineStr"/>
+      <c r="G16" s="27" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="15" t="n">
+      <c r="A17" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="16" t="inlineStr">
+      <c r="B17" s="19" t="inlineStr">
         <is>
           <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
         </is>
       </c>
-      <c r="C17" s="21" t="inlineStr"/>
-      <c r="D17" s="22" t="inlineStr"/>
-      <c r="E17" s="21" t="inlineStr"/>
-      <c r="F17" s="22" t="inlineStr"/>
+      <c r="C17" s="26" t="inlineStr"/>
+      <c r="D17" s="30" t="inlineStr"/>
+      <c r="E17" s="26" t="inlineStr"/>
+      <c r="F17" s="30" t="inlineStr"/>
+      <c r="G17" s="27" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
-      <c r="A18" s="15" t="n">
+      <c r="A18" s="18" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="16" t="inlineStr">
+      <c r="B18" s="19" t="inlineStr">
         <is>
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C18" s="21" t="inlineStr"/>
-      <c r="D18" s="22" t="inlineStr"/>
-      <c r="E18" s="21" t="inlineStr"/>
-      <c r="F18" s="22" t="inlineStr"/>
+      <c r="C18" s="26" t="inlineStr"/>
+      <c r="D18" s="30" t="inlineStr"/>
+      <c r="E18" s="26" t="inlineStr"/>
+      <c r="F18" s="30" t="inlineStr"/>
+      <c r="G18" s="27" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
-      <c r="A19" s="15" t="n">
+      <c r="A19" s="18" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="16" t="inlineStr">
+      <c r="B19" s="19" t="inlineStr">
         <is>
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C19" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D19" s="22" t="inlineStr"/>
-      <c r="E19" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F19" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C19" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D19" s="30" t="inlineStr"/>
+      <c r="E19" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F19" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G19" s="27" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" s="15" t="n">
+      <c r="A20" s="18" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="16" t="inlineStr">
+      <c r="B20" s="19" t="inlineStr">
         <is>
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C20" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D20" s="22" t="inlineStr"/>
-      <c r="E20" s="21" t="inlineStr"/>
-      <c r="F20" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C20" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D20" s="30" t="inlineStr"/>
+      <c r="E20" s="26" t="inlineStr"/>
+      <c r="F20" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G20" s="27" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" s="15" t="n">
+      <c r="A21" s="18" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="16" t="inlineStr">
+      <c r="B21" s="19" t="inlineStr">
         <is>
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C21" s="21" t="inlineStr"/>
-      <c r="D21" s="22" t="inlineStr"/>
-      <c r="E21" s="21" t="inlineStr"/>
-      <c r="F21" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C21" s="26" t="inlineStr"/>
+      <c r="D21" s="30" t="inlineStr"/>
+      <c r="E21" s="26" t="inlineStr"/>
+      <c r="F21" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G21" s="27" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
-      <c r="A22" s="15" t="n">
+      <c r="A22" s="18" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="16" t="inlineStr">
+      <c r="B22" s="19" t="inlineStr">
         <is>
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C22" s="21" t="inlineStr"/>
-      <c r="D22" s="22" t="inlineStr"/>
-      <c r="E22" s="21" t="inlineStr"/>
-      <c r="F22" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C22" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D22" s="30" t="inlineStr"/>
+      <c r="E22" s="26" t="inlineStr"/>
+      <c r="F22" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G22" s="27" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="15" t="n">
+      <c r="A23" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="16" t="inlineStr">
+      <c r="B23" s="19" t="inlineStr">
         <is>
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C23" s="21" t="inlineStr"/>
-      <c r="D23" s="22" t="inlineStr"/>
-      <c r="E23" s="21" t="inlineStr"/>
-      <c r="F23" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C23" s="26" t="inlineStr"/>
+      <c r="D23" s="30" t="inlineStr"/>
+      <c r="E23" s="26" t="inlineStr"/>
+      <c r="F23" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G23" s="27" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="15" t="n">
+      <c r="A24" s="18" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="16" t="inlineStr">
+      <c r="B24" s="19" t="inlineStr">
         <is>
           <t>Muhammad Yusuf</t>
         </is>
       </c>
-      <c r="C24" s="21" t="inlineStr"/>
-      <c r="D24" s="22" t="inlineStr"/>
-      <c r="E24" s="21" t="inlineStr"/>
-      <c r="F24" s="22" t="inlineStr"/>
+      <c r="C24" s="26" t="inlineStr"/>
+      <c r="D24" s="30" t="inlineStr"/>
+      <c r="E24" s="26" t="inlineStr"/>
+      <c r="F24" s="30" t="inlineStr"/>
+      <c r="G24" s="27" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="15" t="n">
+      <c r="A25" s="18" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="16" t="inlineStr">
+      <c r="B25" s="19" t="inlineStr">
         <is>
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C25" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D25" s="22" t="inlineStr"/>
-      <c r="E25" s="21" t="inlineStr"/>
-      <c r="F25" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C25" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="30" t="inlineStr"/>
+      <c r="E25" s="26" t="inlineStr"/>
+      <c r="F25" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G25" s="27" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="15" t="n">
+      <c r="A26" s="18" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="16" t="inlineStr">
+      <c r="B26" s="19" t="inlineStr">
         <is>
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C26" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D26" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E26" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F26" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C26" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D26" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E26" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F26" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G26" s="27" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="15" t="n">
+      <c r="A27" s="18" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="16" t="inlineStr">
+      <c r="B27" s="19" t="inlineStr">
         <is>
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C27" s="21" t="inlineStr"/>
-      <c r="D27" s="22" t="inlineStr"/>
-      <c r="E27" s="21" t="inlineStr"/>
-      <c r="F27" s="22" t="inlineStr">
+      <c r="C27" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D27" s="30" t="inlineStr"/>
+      <c r="E27" s="26" t="inlineStr"/>
+      <c r="F27" s="30" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
+      <c r="G27" s="27" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="15" t="n">
+      <c r="A28" s="18" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="16" t="inlineStr">
+      <c r="B28" s="19" t="inlineStr">
         <is>
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C28" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D28" s="22" t="inlineStr"/>
-      <c r="E28" s="21" t="inlineStr"/>
-      <c r="F28" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C28" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D28" s="30" t="inlineStr"/>
+      <c r="E28" s="26" t="inlineStr"/>
+      <c r="F28" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G28" s="27" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="15" t="n">
+      <c r="A29" s="18" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="16" t="inlineStr">
+      <c r="B29" s="19" t="inlineStr">
         <is>
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C29" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D29" s="22" t="inlineStr"/>
-      <c r="E29" s="21" t="inlineStr"/>
-      <c r="F29" s="22" t="inlineStr">
+      <c r="C29" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D29" s="30" t="inlineStr"/>
+      <c r="E29" s="26" t="inlineStr"/>
+      <c r="F29" s="30" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
+      <c r="G29" s="27" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="15" t="n">
+      <c r="A30" s="18" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="16" t="inlineStr">
+      <c r="B30" s="19" t="inlineStr">
         <is>
           <t>Rafli Febryan</t>
         </is>
       </c>
-      <c r="C30" s="21" t="inlineStr"/>
-      <c r="D30" s="22" t="inlineStr"/>
-      <c r="E30" s="21" t="inlineStr"/>
-      <c r="F30" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C30" s="26" t="inlineStr"/>
+      <c r="D30" s="30" t="inlineStr"/>
+      <c r="E30" s="26" t="inlineStr"/>
+      <c r="F30" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G30" s="27" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="15" t="n">
+      <c r="A31" s="18" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="16" t="inlineStr">
+      <c r="B31" s="19" t="inlineStr">
         <is>
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C31" s="21" t="inlineStr"/>
-      <c r="D31" s="22" t="inlineStr"/>
-      <c r="E31" s="21" t="inlineStr"/>
-      <c r="F31" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C31" s="26" t="inlineStr"/>
+      <c r="D31" s="30" t="inlineStr"/>
+      <c r="E31" s="26" t="inlineStr"/>
+      <c r="F31" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G31" s="27" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="15" t="n">
+      <c r="A32" s="18" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="16" t="inlineStr">
+      <c r="B32" s="19" t="inlineStr">
         <is>
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C32" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D32" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E32" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F32" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C32" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D32" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E32" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F32" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G32" s="27" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="15" t="n">
+      <c r="A33" s="18" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="16" t="inlineStr">
+      <c r="B33" s="19" t="inlineStr">
         <is>
           <t>Salsabila Nur Fairuz</t>
         </is>
       </c>
-      <c r="C33" s="21" t="inlineStr"/>
-      <c r="D33" s="22" t="inlineStr"/>
-      <c r="E33" s="21" t="inlineStr"/>
-      <c r="F33" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C33" s="26" t="inlineStr"/>
+      <c r="D33" s="30" t="inlineStr"/>
+      <c r="E33" s="26" t="inlineStr"/>
+      <c r="F33" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G33" s="27" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="15" t="n">
+      <c r="A34" s="18" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="16" t="inlineStr">
+      <c r="B34" s="19" t="inlineStr">
         <is>
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C34" s="21" t="inlineStr"/>
-      <c r="D34" s="22" t="inlineStr"/>
-      <c r="E34" s="21" t="inlineStr"/>
-      <c r="F34" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C34" s="26" t="inlineStr"/>
+      <c r="D34" s="30" t="inlineStr"/>
+      <c r="E34" s="26" t="inlineStr"/>
+      <c r="F34" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G34" s="27" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="15" t="n">
+      <c r="A35" s="18" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="16" t="inlineStr">
+      <c r="B35" s="19" t="inlineStr">
         <is>
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C35" s="21" t="inlineStr"/>
-      <c r="D35" s="22" t="inlineStr"/>
-      <c r="E35" s="21" t="inlineStr"/>
-      <c r="F35" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C35" s="26" t="inlineStr"/>
+      <c r="D35" s="30" t="inlineStr"/>
+      <c r="E35" s="26" t="inlineStr"/>
+      <c r="F35" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G35" s="27" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" s="15" t="n">
+      <c r="A36" s="18" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="16" t="inlineStr">
+      <c r="B36" s="19" t="inlineStr">
         <is>
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C36" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D36" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E36" s="21" t="inlineStr"/>
-      <c r="F36" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D36" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E36" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F36" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G36" s="27" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
-      <c r="A37" s="15" t="n">
+      <c r="A37" s="18" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="16" t="inlineStr">
+      <c r="B37" s="19" t="inlineStr">
         <is>
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C37" s="21" t="inlineStr"/>
-      <c r="D37" s="22" t="inlineStr"/>
-      <c r="E37" s="24" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F37" s="23" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C37" s="26" t="inlineStr"/>
+      <c r="D37" s="30" t="inlineStr"/>
+      <c r="E37" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F37" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G37" s="27" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
-      <c r="A38" s="15" t="n">
+      <c r="A38" s="18" t="n">
         <v>35</v>
       </c>
-      <c r="B38" s="16" t="inlineStr">
+      <c r="B38" s="19" t="inlineStr">
         <is>
           <t>Yehezkiel Dio Sinolungan</t>
         </is>
       </c>
-      <c r="C38" s="21" t="inlineStr"/>
-      <c r="D38" s="22" t="inlineStr"/>
-      <c r="E38" s="21" t="inlineStr"/>
-      <c r="F38" s="22" t="inlineStr">
+      <c r="C38" s="26" t="inlineStr"/>
+      <c r="D38" s="30" t="inlineStr"/>
+      <c r="E38" s="26" t="inlineStr"/>
+      <c r="F38" s="30" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
+      <c r="G38" s="27" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -90,7 +90,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -217,11 +217,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -301,6 +329,8 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1049,7 +1079,11 @@
       <c r="C18" s="26" t="inlineStr"/>
       <c r="D18" s="30" t="inlineStr"/>
       <c r="E18" s="26" t="inlineStr"/>
-      <c r="F18" s="30" t="inlineStr"/>
+      <c r="F18" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="G18" s="27" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -331,6 +331,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,7 +849,11 @@
         </is>
       </c>
       <c r="D6" s="30" t="inlineStr"/>
-      <c r="E6" s="26" t="inlineStr"/>
+      <c r="E6" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F6" s="29" t="inlineStr">
         <is>
           <t>ü</t>
@@ -884,7 +891,11 @@
         </is>
       </c>
       <c r="D8" s="30" t="inlineStr"/>
-      <c r="E8" s="26" t="inlineStr"/>
+      <c r="E8" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F8" s="29" t="inlineStr">
         <is>
           <t>ü</t>
@@ -925,7 +936,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D10" s="30" t="inlineStr"/>
+      <c r="D10" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E10" s="26" t="inlineStr"/>
       <c r="F10" s="29" t="inlineStr">
         <is>
@@ -963,7 +978,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D12" s="30" t="inlineStr"/>
+      <c r="D12" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E12" s="28" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1226,8 +1245,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D25" s="30" t="inlineStr"/>
-      <c r="E25" s="26" t="inlineStr"/>
+      <c r="D25" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E25" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F25" s="29" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1264,7 +1291,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G26" s="27" t="inlineStr"/>
+      <c r="G26" s="33" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="18" t="n">
@@ -1326,7 +1357,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D29" s="30" t="inlineStr"/>
+      <c r="D29" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E29" s="26" t="inlineStr"/>
       <c r="F29" s="30" t="inlineStr">
         <is>
@@ -1432,9 +1467,21 @@
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C34" s="26" t="inlineStr"/>
-      <c r="D34" s="30" t="inlineStr"/>
-      <c r="E34" s="26" t="inlineStr"/>
+      <c r="C34" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D34" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E34" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F34" s="29" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -890,7 +890,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D8" s="30" t="inlineStr"/>
+      <c r="D8" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E8" s="28" t="inlineStr">
         <is>
           <t>ü</t>
@@ -941,7 +945,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E10" s="26" t="inlineStr"/>
+      <c r="E10" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F10" s="29" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1047,7 +1055,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D15" s="30" t="inlineStr"/>
+      <c r="D15" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E15" s="26" t="inlineStr"/>
       <c r="F15" s="30" t="inlineStr">
         <is>
@@ -1146,7 +1158,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D20" s="30" t="inlineStr"/>
+      <c r="D20" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E20" s="26" t="inlineStr"/>
       <c r="F20" s="29" t="inlineStr">
         <is>
@@ -1311,8 +1327,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D27" s="30" t="inlineStr"/>
-      <c r="E27" s="26" t="inlineStr"/>
+      <c r="D27" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E27" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F27" s="30" t="inlineStr">
         <is>
           <t>NON-MUS</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -824,8 +824,16 @@
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C5" s="26" t="inlineStr"/>
-      <c r="D5" s="30" t="inlineStr"/>
+      <c r="C5" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D5" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E5" s="26" t="inlineStr"/>
       <c r="F5" s="29" t="inlineStr">
         <is>
@@ -848,7 +856,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D6" s="30" t="inlineStr"/>
+      <c r="D6" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E6" s="28" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1032,8 +1044,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D14" s="30" t="inlineStr"/>
-      <c r="E14" s="26" t="inlineStr"/>
+      <c r="D14" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E14" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F14" s="29" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1131,7 +1151,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D19" s="30" t="inlineStr"/>
+      <c r="D19" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E19" s="28" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1359,7 +1383,11 @@
         </is>
       </c>
       <c r="D28" s="30" t="inlineStr"/>
-      <c r="E28" s="26" t="inlineStr"/>
+      <c r="E28" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F28" s="29" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1461,7 +1489,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G32" s="27" t="inlineStr"/>
+      <c r="G32" s="33" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="18" t="n">
@@ -1524,7 +1556,11 @@
       </c>
       <c r="C35" s="26" t="inlineStr"/>
       <c r="D35" s="30" t="inlineStr"/>
-      <c r="E35" s="26" t="inlineStr"/>
+      <c r="E35" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F35" s="29" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1572,8 +1608,16 @@
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C37" s="26" t="inlineStr"/>
-      <c r="D37" s="30" t="inlineStr"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D37" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -834,7 +834,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E5" s="26" t="inlineStr"/>
+      <c r="E5" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F5" s="29" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1080,7 +1084,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E15" s="26" t="inlineStr"/>
+      <c r="E15" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F15" s="30" t="inlineStr">
         <is>
           <t>NON-MUS</t>
@@ -1187,7 +1195,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E20" s="26" t="inlineStr"/>
+      <c r="E20" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F20" s="29" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1554,7 +1566,11 @@
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C35" s="26" t="inlineStr"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D35" s="30" t="inlineStr"/>
       <c r="E35" s="28" t="inlineStr">
         <is>
@@ -1597,7 +1613,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G36" s="27" t="inlineStr"/>
+      <c r="G36" s="33" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="18" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -1017,7 +1017,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G12" s="27" t="inlineStr"/>
+      <c r="G12" s="33" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="18" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -875,7 +875,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G6" s="27" t="inlineStr"/>
+      <c r="G6" s="33" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="18" t="n">
@@ -1244,7 +1248,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="D22" s="30" t="inlineStr"/>
+      <c r="D22" s="29" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="E22" s="26" t="inlineStr"/>
       <c r="F22" s="29" t="inlineStr">
         <is>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -813,7 +813,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G4" s="27" t="inlineStr"/>
+      <c r="G4" s="33" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="18" t="n">
@@ -844,7 +848,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G5" s="27" t="inlineStr"/>
+      <c r="G5" s="33" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="18" t="n">
@@ -1324,7 +1332,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G25" s="27" t="inlineStr"/>
+      <c r="G25" s="33" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="18" t="n">
@@ -1438,7 +1450,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="E29" s="26" t="inlineStr"/>
+      <c r="E29" s="28" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F29" s="30" t="inlineStr">
         <is>
           <t>NON-MUS</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -52,7 +52,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -66,12 +66,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92FF8A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEB972A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92FF8A"/>
+        <fgColor rgb="FFFC8DD0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE66CB5"/>
       </patternFill>
     </fill>
     <fill>
@@ -86,11 +96,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00fc8dd0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00eb972a"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00e66cb5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -217,39 +237,11 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -260,22 +252,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -286,7 +293,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -300,38 +310,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,10 +700,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:G38"/>
+      <selection activeCell="G12" sqref="A1:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -689,8 +712,8 @@
     <col width="39.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="9.109375" bestFit="1" customWidth="1" min="3" max="5"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="16.109375" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="9.109375" bestFit="1" customWidth="1" min="8" max="9"/>
+    <col width="16.109375" bestFit="1" customWidth="1" min="7" max="8"/>
+    <col width="9.109375" bestFit="1" customWidth="1" min="9" max="9"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="9.109375" bestFit="1" customWidth="1" min="11" max="12"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="13" max="13"/>
@@ -702,1007 +725,1098 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="15" t="inlineStr">
+      <c r="A1" s="21" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="21" t="inlineStr">
         <is>
           <t>Nama Siswa</t>
         </is>
       </c>
-      <c r="C1" s="20" t="inlineStr">
+      <c r="C1" s="26" t="inlineStr">
         <is>
           <t>Minggu Ke-11</t>
         </is>
       </c>
-      <c r="D1" s="20" t="n"/>
-      <c r="E1" s="20" t="n"/>
-      <c r="F1" s="20" t="n"/>
-      <c r="G1" s="21" t="inlineStr">
+      <c r="D1" s="26" t="n"/>
+      <c r="E1" s="26" t="n"/>
+      <c r="F1" s="26" t="n"/>
+      <c r="G1" s="27" t="inlineStr">
         <is>
           <t>Minggu Ke-12</t>
         </is>
       </c>
+      <c r="H1" s="28" t="inlineStr">
+        <is>
+          <t>Minggu Ke-13</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="22" t="n"/>
-      <c r="B2" s="22" t="n"/>
-      <c r="C2" s="23" t="inlineStr">
+      <c r="A2" s="29" t="n"/>
+      <c r="B2" s="29" t="n"/>
+      <c r="C2" s="30" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
-      <c r="D2" s="23" t="inlineStr">
+      <c r="D2" s="30" t="inlineStr">
         <is>
           <t>Tugas 2</t>
         </is>
       </c>
-      <c r="E2" s="23" t="inlineStr">
+      <c r="E2" s="30" t="inlineStr">
         <is>
           <t>Tugas 3</t>
         </is>
       </c>
-      <c r="F2" s="23" t="inlineStr">
+      <c r="F2" s="30" t="inlineStr">
         <is>
           <t>Tugas 4</t>
         </is>
       </c>
-      <c r="G2" s="24" t="inlineStr">
+      <c r="G2" s="31" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
+      <c r="H2" s="32" t="inlineStr">
+        <is>
+          <t>Tugas 1</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="25" t="n"/>
-      <c r="B3" s="25" t="n"/>
-      <c r="C3" s="26" t="inlineStr">
+      <c r="A3" s="33" t="n"/>
+      <c r="B3" s="33" t="n"/>
+      <c r="C3" s="34" t="inlineStr">
         <is>
           <t>MAT11</t>
         </is>
       </c>
-      <c r="D3" s="26" t="inlineStr">
+      <c r="D3" s="34" t="inlineStr">
         <is>
           <t>BASDA3</t>
         </is>
       </c>
-      <c r="E3" s="26" t="inlineStr">
+      <c r="E3" s="34" t="inlineStr">
         <is>
           <t>BING7</t>
         </is>
       </c>
-      <c r="F3" s="26" t="inlineStr">
+      <c r="F3" s="34" t="inlineStr">
         <is>
           <t>PAI11</t>
         </is>
       </c>
-      <c r="G3" s="27" t="inlineStr">
+      <c r="G3" s="35" t="inlineStr">
         <is>
           <t>MAT12</t>
         </is>
       </c>
+      <c r="H3" s="36" t="inlineStr">
+        <is>
+          <t>MAT13</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="18" t="n">
+      <c r="A4" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="inlineStr">
+      <c r="B4" s="25" t="inlineStr">
         <is>
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C4" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D4" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E4" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F4" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G4" s="33" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C4" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D4" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E4" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F4" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G4" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H4" s="40" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="18" t="n">
+      <c r="A5" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="inlineStr">
+      <c r="B5" s="25" t="inlineStr">
         <is>
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C5" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D5" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E5" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F5" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G5" s="33" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C5" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D5" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E5" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F5" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G5" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H5" s="40" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="18" t="n">
+      <c r="A6" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="19" t="inlineStr">
+      <c r="B6" s="25" t="inlineStr">
         <is>
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C6" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D6" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E6" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F6" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G6" s="33" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C6" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D6" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E6" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F6" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G6" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H6" s="40" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="18" t="n">
+      <c r="A7" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="19" t="inlineStr">
+      <c r="B7" s="25" t="inlineStr">
         <is>
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C7" s="26" t="inlineStr"/>
-      <c r="D7" s="30" t="inlineStr"/>
-      <c r="E7" s="26" t="inlineStr"/>
-      <c r="F7" s="30" t="inlineStr"/>
-      <c r="G7" s="27" t="inlineStr"/>
+      <c r="C7" s="34" t="inlineStr"/>
+      <c r="D7" s="41" t="inlineStr"/>
+      <c r="E7" s="34" t="inlineStr"/>
+      <c r="F7" s="41" t="inlineStr"/>
+      <c r="G7" s="35" t="inlineStr"/>
+      <c r="H7" s="40" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="18" t="n">
+      <c r="A8" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="19" t="inlineStr">
+      <c r="B8" s="25" t="inlineStr">
         <is>
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C8" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D8" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E8" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F8" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G8" s="27" t="inlineStr"/>
+      <c r="C8" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D8" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E8" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F8" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G8" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H8" s="40" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
-      <c r="A9" s="18" t="n">
+      <c r="A9" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="19" t="inlineStr">
+      <c r="B9" s="25" t="inlineStr">
         <is>
           <t>Cleolia Jasmine Nasution</t>
         </is>
       </c>
-      <c r="C9" s="26" t="inlineStr"/>
-      <c r="D9" s="30" t="inlineStr"/>
-      <c r="E9" s="26" t="inlineStr"/>
-      <c r="F9" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G9" s="27" t="inlineStr"/>
+      <c r="C9" s="34" t="inlineStr"/>
+      <c r="D9" s="41" t="inlineStr"/>
+      <c r="E9" s="34" t="inlineStr"/>
+      <c r="F9" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G9" s="35" t="inlineStr"/>
+      <c r="H9" s="40" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="18" t="n">
+      <c r="A10" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="19" t="inlineStr">
+      <c r="B10" s="25" t="inlineStr">
         <is>
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C10" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D10" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E10" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F10" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G10" s="27" t="inlineStr"/>
+      <c r="C10" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D10" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E10" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F10" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G10" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H10" s="40" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="18" t="n">
+      <c r="A11" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="19" t="inlineStr">
+      <c r="B11" s="25" t="inlineStr">
         <is>
           <t>Dinda Fatchus Sabila Fa'izatur Rahmah</t>
         </is>
       </c>
-      <c r="C11" s="26" t="inlineStr"/>
-      <c r="D11" s="30" t="inlineStr"/>
-      <c r="E11" s="26" t="inlineStr"/>
-      <c r="F11" s="30" t="inlineStr"/>
-      <c r="G11" s="27" t="inlineStr"/>
+      <c r="C11" s="34" t="inlineStr"/>
+      <c r="D11" s="41" t="inlineStr"/>
+      <c r="E11" s="34" t="inlineStr"/>
+      <c r="F11" s="41" t="inlineStr"/>
+      <c r="G11" s="35" t="inlineStr"/>
+      <c r="H11" s="40" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="18" t="n">
+      <c r="A12" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="19" t="inlineStr">
+      <c r="B12" s="25" t="inlineStr">
         <is>
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C12" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D12" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E12" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F12" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G12" s="33" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C12" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D12" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E12" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F12" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G12" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H12" s="40" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="18" t="n">
+      <c r="A13" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="19" t="inlineStr">
+      <c r="B13" s="25" t="inlineStr">
         <is>
           <t>Farhan Nur Aliani</t>
         </is>
       </c>
-      <c r="C13" s="26" t="inlineStr"/>
-      <c r="D13" s="30" t="inlineStr"/>
-      <c r="E13" s="26" t="inlineStr"/>
-      <c r="F13" s="30" t="inlineStr"/>
-      <c r="G13" s="27" t="inlineStr"/>
+      <c r="C13" s="34" t="inlineStr"/>
+      <c r="D13" s="41" t="inlineStr"/>
+      <c r="E13" s="34" t="inlineStr"/>
+      <c r="F13" s="41" t="inlineStr"/>
+      <c r="G13" s="35" t="inlineStr"/>
+      <c r="H13" s="40" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="18" t="n">
+      <c r="A14" s="24" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="19" t="inlineStr">
+      <c r="B14" s="25" t="inlineStr">
         <is>
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C14" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D14" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E14" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F14" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G14" s="27" t="inlineStr"/>
+      <c r="C14" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D14" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E14" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F14" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G14" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H14" s="40" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="18" t="n">
+      <c r="A15" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="19" t="inlineStr">
+      <c r="B15" s="25" t="inlineStr">
         <is>
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C15" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D15" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E15" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F15" s="30" t="inlineStr">
+      <c r="C15" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D15" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E15" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F15" s="41" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G15" s="27" t="inlineStr"/>
+      <c r="G15" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H15" s="40" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="18" t="n">
+      <c r="A16" s="24" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="19" t="inlineStr">
+      <c r="B16" s="25" t="inlineStr">
         <is>
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C16" s="26" t="inlineStr"/>
-      <c r="D16" s="30" t="inlineStr"/>
-      <c r="E16" s="26" t="inlineStr"/>
-      <c r="F16" s="30" t="inlineStr"/>
-      <c r="G16" s="27" t="inlineStr"/>
+      <c r="C16" s="34" t="inlineStr"/>
+      <c r="D16" s="41" t="inlineStr"/>
+      <c r="E16" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F16" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G16" s="35" t="inlineStr"/>
+      <c r="H16" s="40" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="18" t="n">
+      <c r="A17" s="24" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="19" t="inlineStr">
+      <c r="B17" s="25" t="inlineStr">
         <is>
           <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
         </is>
       </c>
-      <c r="C17" s="26" t="inlineStr"/>
-      <c r="D17" s="30" t="inlineStr"/>
-      <c r="E17" s="26" t="inlineStr"/>
-      <c r="F17" s="30" t="inlineStr"/>
-      <c r="G17" s="27" t="inlineStr"/>
+      <c r="C17" s="34" t="inlineStr"/>
+      <c r="D17" s="41" t="inlineStr"/>
+      <c r="E17" s="34" t="inlineStr"/>
+      <c r="F17" s="41" t="inlineStr"/>
+      <c r="G17" s="35" t="inlineStr"/>
+      <c r="H17" s="40" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
-      <c r="A18" s="18" t="n">
+      <c r="A18" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="19" t="inlineStr">
+      <c r="B18" s="25" t="inlineStr">
         <is>
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C18" s="26" t="inlineStr"/>
-      <c r="D18" s="30" t="inlineStr"/>
-      <c r="E18" s="26" t="inlineStr"/>
-      <c r="F18" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G18" s="27" t="inlineStr"/>
+      <c r="C18" s="34" t="inlineStr"/>
+      <c r="D18" s="41" t="inlineStr"/>
+      <c r="E18" s="34" t="inlineStr"/>
+      <c r="F18" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G18" s="35" t="inlineStr"/>
+      <c r="H18" s="40" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
-      <c r="A19" s="18" t="n">
+      <c r="A19" s="24" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="19" t="inlineStr">
+      <c r="B19" s="25" t="inlineStr">
         <is>
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C19" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D19" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E19" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F19" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G19" s="27" t="inlineStr"/>
+      <c r="C19" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D19" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E19" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F19" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G19" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H19" s="40" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" s="18" t="n">
+      <c r="A20" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="19" t="inlineStr">
+      <c r="B20" s="25" t="inlineStr">
         <is>
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C20" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D20" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E20" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F20" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G20" s="27" t="inlineStr"/>
+      <c r="C20" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D20" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E20" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F20" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G20" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H20" s="40" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" s="18" t="n">
+      <c r="A21" s="24" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="19" t="inlineStr">
+      <c r="B21" s="25" t="inlineStr">
         <is>
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C21" s="26" t="inlineStr"/>
-      <c r="D21" s="30" t="inlineStr"/>
-      <c r="E21" s="26" t="inlineStr"/>
-      <c r="F21" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G21" s="27" t="inlineStr"/>
+      <c r="C21" s="34" t="inlineStr"/>
+      <c r="D21" s="41" t="inlineStr"/>
+      <c r="E21" s="34" t="inlineStr"/>
+      <c r="F21" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G21" s="35" t="inlineStr"/>
+      <c r="H21" s="40" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
-      <c r="A22" s="18" t="n">
+      <c r="A22" s="24" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="19" t="inlineStr">
+      <c r="B22" s="25" t="inlineStr">
         <is>
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C22" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D22" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E22" s="26" t="inlineStr"/>
-      <c r="F22" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G22" s="27" t="inlineStr"/>
+      <c r="C22" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D22" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E22" s="34" t="inlineStr"/>
+      <c r="F22" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G22" s="35" t="inlineStr"/>
+      <c r="H22" s="40" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="18" t="n">
+      <c r="A23" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="19" t="inlineStr">
+      <c r="B23" s="25" t="inlineStr">
         <is>
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C23" s="26" t="inlineStr"/>
-      <c r="D23" s="30" t="inlineStr"/>
-      <c r="E23" s="26" t="inlineStr"/>
-      <c r="F23" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G23" s="27" t="inlineStr"/>
+      <c r="C23" s="34" t="inlineStr"/>
+      <c r="D23" s="41" t="inlineStr"/>
+      <c r="E23" s="34" t="inlineStr"/>
+      <c r="F23" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G23" s="35" t="inlineStr"/>
+      <c r="H23" s="40" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="18" t="n">
+      <c r="A24" s="24" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="19" t="inlineStr">
+      <c r="B24" s="25" t="inlineStr">
         <is>
           <t>Muhammad Yusuf</t>
         </is>
       </c>
-      <c r="C24" s="26" t="inlineStr"/>
-      <c r="D24" s="30" t="inlineStr"/>
-      <c r="E24" s="26" t="inlineStr"/>
-      <c r="F24" s="30" t="inlineStr"/>
-      <c r="G24" s="27" t="inlineStr"/>
+      <c r="C24" s="34" t="inlineStr"/>
+      <c r="D24" s="41" t="inlineStr"/>
+      <c r="E24" s="34" t="inlineStr"/>
+      <c r="F24" s="41" t="inlineStr"/>
+      <c r="G24" s="35" t="inlineStr"/>
+      <c r="H24" s="40" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="18" t="n">
+      <c r="A25" s="24" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="19" t="inlineStr">
+      <c r="B25" s="25" t="inlineStr">
         <is>
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C25" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D25" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E25" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F25" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G25" s="33" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C25" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E25" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F25" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G25" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H25" s="40" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="18" t="n">
+      <c r="A26" s="24" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="19" t="inlineStr">
+      <c r="B26" s="25" t="inlineStr">
         <is>
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C26" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D26" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E26" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F26" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G26" s="33" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C26" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D26" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E26" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F26" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G26" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H26" s="40" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="18" t="n">
+      <c r="A27" s="24" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="19" t="inlineStr">
+      <c r="B27" s="25" t="inlineStr">
         <is>
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C27" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D27" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E27" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F27" s="30" t="inlineStr">
+      <c r="C27" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D27" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E27" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F27" s="41" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G27" s="27" t="inlineStr"/>
+      <c r="G27" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H27" s="40" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="18" t="n">
+      <c r="A28" s="24" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="19" t="inlineStr">
+      <c r="B28" s="25" t="inlineStr">
         <is>
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C28" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D28" s="30" t="inlineStr"/>
-      <c r="E28" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F28" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G28" s="27" t="inlineStr"/>
+      <c r="C28" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D28" s="41" t="inlineStr"/>
+      <c r="E28" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F28" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G28" s="35" t="inlineStr"/>
+      <c r="H28" s="40" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="18" t="n">
+      <c r="A29" s="24" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="19" t="inlineStr">
+      <c r="B29" s="25" t="inlineStr">
         <is>
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C29" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D29" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E29" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F29" s="30" t="inlineStr">
+      <c r="C29" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D29" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E29" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F29" s="41" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G29" s="27" t="inlineStr"/>
+      <c r="G29" s="35" t="inlineStr"/>
+      <c r="H29" s="40" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="18" t="n">
+      <c r="A30" s="24" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="19" t="inlineStr">
+      <c r="B30" s="25" t="inlineStr">
         <is>
           <t>Rafli Febryan</t>
         </is>
       </c>
-      <c r="C30" s="26" t="inlineStr"/>
-      <c r="D30" s="30" t="inlineStr"/>
-      <c r="E30" s="26" t="inlineStr"/>
-      <c r="F30" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G30" s="27" t="inlineStr"/>
+      <c r="C30" s="34" t="inlineStr"/>
+      <c r="D30" s="41" t="inlineStr"/>
+      <c r="E30" s="34" t="inlineStr"/>
+      <c r="F30" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G30" s="35" t="inlineStr"/>
+      <c r="H30" s="40" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="18" t="n">
+      <c r="A31" s="24" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="19" t="inlineStr">
+      <c r="B31" s="25" t="inlineStr">
         <is>
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C31" s="26" t="inlineStr"/>
-      <c r="D31" s="30" t="inlineStr"/>
-      <c r="E31" s="26" t="inlineStr"/>
-      <c r="F31" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G31" s="27" t="inlineStr"/>
+      <c r="C31" s="34" t="inlineStr"/>
+      <c r="D31" s="41" t="inlineStr"/>
+      <c r="E31" s="34" t="inlineStr"/>
+      <c r="F31" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G31" s="35" t="inlineStr"/>
+      <c r="H31" s="40" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="18" t="n">
+      <c r="A32" s="24" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="19" t="inlineStr">
+      <c r="B32" s="25" t="inlineStr">
         <is>
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C32" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D32" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E32" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F32" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G32" s="33" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
+      <c r="C32" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D32" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E32" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F32" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G32" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H32" s="40" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="18" t="n">
+      <c r="A33" s="24" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="19" t="inlineStr">
+      <c r="B33" s="25" t="inlineStr">
         <is>
           <t>Salsabila Nur Fairuz</t>
         </is>
       </c>
-      <c r="C33" s="26" t="inlineStr"/>
-      <c r="D33" s="30" t="inlineStr"/>
-      <c r="E33" s="26" t="inlineStr"/>
-      <c r="F33" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G33" s="27" t="inlineStr"/>
+      <c r="C33" s="34" t="inlineStr"/>
+      <c r="D33" s="41" t="inlineStr"/>
+      <c r="E33" s="34" t="inlineStr"/>
+      <c r="F33" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G33" s="35" t="inlineStr"/>
+      <c r="H33" s="40" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="18" t="n">
+      <c r="A34" s="24" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="19" t="inlineStr">
+      <c r="B34" s="25" t="inlineStr">
         <is>
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C34" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D34" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E34" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F34" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G34" s="27" t="inlineStr"/>
+      <c r="C34" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D34" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E34" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F34" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G34" s="35" t="inlineStr"/>
+      <c r="H34" s="40" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="18" t="n">
+      <c r="A35" s="24" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="19" t="inlineStr">
+      <c r="B35" s="25" t="inlineStr">
         <is>
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C35" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D35" s="30" t="inlineStr"/>
-      <c r="E35" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F35" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G35" s="27" t="inlineStr"/>
+      <c r="C35" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D35" s="41" t="inlineStr"/>
+      <c r="E35" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F35" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G35" s="35" t="inlineStr"/>
+      <c r="H35" s="40" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" s="18" t="n">
+      <c r="A36" s="24" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="19" t="inlineStr">
+      <c r="B36" s="25" t="inlineStr">
         <is>
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C36" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D36" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E36" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F36" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G36" s="33" t="inlineStr">
+      <c r="C36" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D36" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E36" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F36" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G36" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H36" s="42" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
-      <c r="A37" s="18" t="n">
+      <c r="A37" s="24" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="19" t="inlineStr">
+      <c r="B37" s="25" t="inlineStr">
         <is>
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C37" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D37" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E37" s="28" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F37" s="29" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G37" s="27" t="inlineStr"/>
+      <c r="C37" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D37" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E37" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F37" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G37" s="35" t="inlineStr"/>
+      <c r="H37" s="40" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
-      <c r="A38" s="18" t="n">
+      <c r="A38" s="24" t="n">
         <v>35</v>
       </c>
-      <c r="B38" s="19" t="inlineStr">
+      <c r="B38" s="25" t="inlineStr">
         <is>
           <t>Yehezkiel Dio Sinolungan</t>
         </is>
       </c>
-      <c r="C38" s="26" t="inlineStr"/>
-      <c r="D38" s="30" t="inlineStr"/>
-      <c r="E38" s="26" t="inlineStr"/>
-      <c r="F38" s="30" t="inlineStr">
+      <c r="C38" s="34" t="inlineStr"/>
+      <c r="D38" s="41" t="inlineStr"/>
+      <c r="E38" s="34" t="inlineStr"/>
+      <c r="F38" s="41" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G38" s="27" t="inlineStr"/>
+      <c r="G38" s="35" t="inlineStr"/>
+      <c r="H38" s="40" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1"/>
+    <mergeCell ref="H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -110,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -237,11 +237,39 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -355,6 +383,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -700,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G12" sqref="A1:H38"/>
@@ -753,6 +786,7 @@
           <t>Minggu Ke-13</t>
         </is>
       </c>
+      <c r="I1" s="28" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="29" t="n"/>
@@ -787,6 +821,11 @@
           <t>Tugas 1</t>
         </is>
       </c>
+      <c r="I2" s="32" t="inlineStr">
+        <is>
+          <t>Tugas 2</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="33" t="n"/>
@@ -821,6 +860,11 @@
           <t>MAT13</t>
         </is>
       </c>
+      <c r="I3" s="36" t="inlineStr">
+        <is>
+          <t>PPL3</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="24" t="n">
@@ -857,6 +901,7 @@
         </is>
       </c>
       <c r="H4" s="40" t="inlineStr"/>
+      <c r="I4" s="36" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="24" t="n">
@@ -893,6 +938,7 @@
         </is>
       </c>
       <c r="H5" s="40" t="inlineStr"/>
+      <c r="I5" s="36" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="24" t="n">
@@ -929,6 +975,11 @@
         </is>
       </c>
       <c r="H6" s="40" t="inlineStr"/>
+      <c r="I6" s="45" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="24" t="n">
@@ -945,6 +996,7 @@
       <c r="F7" s="41" t="inlineStr"/>
       <c r="G7" s="35" t="inlineStr"/>
       <c r="H7" s="40" t="inlineStr"/>
+      <c r="I7" s="36" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="24" t="n">
@@ -981,6 +1033,7 @@
         </is>
       </c>
       <c r="H8" s="40" t="inlineStr"/>
+      <c r="I8" s="36" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="24" t="n">
@@ -1001,6 +1054,7 @@
       </c>
       <c r="G9" s="35" t="inlineStr"/>
       <c r="H9" s="40" t="inlineStr"/>
+      <c r="I9" s="36" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="24" t="n">
@@ -1037,6 +1091,7 @@
         </is>
       </c>
       <c r="H10" s="40" t="inlineStr"/>
+      <c r="I10" s="36" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="24" t="n">
@@ -1053,6 +1108,7 @@
       <c r="F11" s="41" t="inlineStr"/>
       <c r="G11" s="35" t="inlineStr"/>
       <c r="H11" s="40" t="inlineStr"/>
+      <c r="I11" s="36" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="24" t="n">
@@ -1088,7 +1144,12 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H12" s="40" t="inlineStr"/>
+      <c r="H12" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I12" s="36" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="24" t="n">
@@ -1105,6 +1166,7 @@
       <c r="F13" s="41" t="inlineStr"/>
       <c r="G13" s="35" t="inlineStr"/>
       <c r="H13" s="40" t="inlineStr"/>
+      <c r="I13" s="36" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="24" t="n">
@@ -1141,6 +1203,7 @@
         </is>
       </c>
       <c r="H14" s="40" t="inlineStr"/>
+      <c r="I14" s="36" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="24" t="n">
@@ -1177,6 +1240,7 @@
         </is>
       </c>
       <c r="H15" s="40" t="inlineStr"/>
+      <c r="I15" s="36" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="24" t="n">
@@ -1201,6 +1265,7 @@
       </c>
       <c r="G16" s="35" t="inlineStr"/>
       <c r="H16" s="40" t="inlineStr"/>
+      <c r="I16" s="36" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="24" t="n">
@@ -1217,6 +1282,7 @@
       <c r="F17" s="41" t="inlineStr"/>
       <c r="G17" s="35" t="inlineStr"/>
       <c r="H17" s="40" t="inlineStr"/>
+      <c r="I17" s="36" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="24" t="n">
@@ -1237,6 +1303,7 @@
       </c>
       <c r="G18" s="35" t="inlineStr"/>
       <c r="H18" s="40" t="inlineStr"/>
+      <c r="I18" s="36" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="24" t="n">
@@ -1273,6 +1340,7 @@
         </is>
       </c>
       <c r="H19" s="40" t="inlineStr"/>
+      <c r="I19" s="36" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="24" t="n">
@@ -1309,6 +1377,7 @@
         </is>
       </c>
       <c r="H20" s="40" t="inlineStr"/>
+      <c r="I20" s="36" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="24" t="n">
@@ -1329,6 +1398,7 @@
       </c>
       <c r="G21" s="35" t="inlineStr"/>
       <c r="H21" s="40" t="inlineStr"/>
+      <c r="I21" s="36" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="24" t="n">
@@ -1357,6 +1427,7 @@
       </c>
       <c r="G22" s="35" t="inlineStr"/>
       <c r="H22" s="40" t="inlineStr"/>
+      <c r="I22" s="36" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="24" t="n">
@@ -1377,6 +1448,7 @@
       </c>
       <c r="G23" s="35" t="inlineStr"/>
       <c r="H23" s="40" t="inlineStr"/>
+      <c r="I23" s="36" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="24" t="n">
@@ -1393,6 +1465,7 @@
       <c r="F24" s="41" t="inlineStr"/>
       <c r="G24" s="35" t="inlineStr"/>
       <c r="H24" s="40" t="inlineStr"/>
+      <c r="I24" s="36" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="24" t="n">
@@ -1429,6 +1502,7 @@
         </is>
       </c>
       <c r="H25" s="40" t="inlineStr"/>
+      <c r="I25" s="36" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="24" t="n">
@@ -1465,6 +1539,7 @@
         </is>
       </c>
       <c r="H26" s="40" t="inlineStr"/>
+      <c r="I26" s="36" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="24" t="n">
@@ -1501,6 +1576,7 @@
         </is>
       </c>
       <c r="H27" s="40" t="inlineStr"/>
+      <c r="I27" s="36" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="24" t="n">
@@ -1527,8 +1603,17 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G28" s="35" t="inlineStr"/>
-      <c r="H28" s="40" t="inlineStr"/>
+      <c r="G28" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H28" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I28" s="36" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="24" t="n">
@@ -1561,6 +1646,7 @@
       </c>
       <c r="G29" s="35" t="inlineStr"/>
       <c r="H29" s="40" t="inlineStr"/>
+      <c r="I29" s="36" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="24" t="n">
@@ -1581,6 +1667,7 @@
       </c>
       <c r="G30" s="35" t="inlineStr"/>
       <c r="H30" s="40" t="inlineStr"/>
+      <c r="I30" s="36" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="24" t="n">
@@ -1591,7 +1678,11 @@
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C31" s="34" t="inlineStr"/>
+      <c r="C31" s="37" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="D31" s="41" t="inlineStr"/>
       <c r="E31" s="34" t="inlineStr"/>
       <c r="F31" s="38" t="inlineStr">
@@ -1599,8 +1690,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G31" s="35" t="inlineStr"/>
+      <c r="G31" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H31" s="40" t="inlineStr"/>
+      <c r="I31" s="36" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="24" t="n">
@@ -1637,6 +1733,7 @@
         </is>
       </c>
       <c r="H32" s="40" t="inlineStr"/>
+      <c r="I32" s="36" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="24" t="n">
@@ -1657,6 +1754,7 @@
       </c>
       <c r="G33" s="35" t="inlineStr"/>
       <c r="H33" s="40" t="inlineStr"/>
+      <c r="I33" s="36" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="24" t="n">
@@ -1689,6 +1787,7 @@
       </c>
       <c r="G34" s="35" t="inlineStr"/>
       <c r="H34" s="40" t="inlineStr"/>
+      <c r="I34" s="36" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="24" t="n">
@@ -1717,6 +1816,7 @@
       </c>
       <c r="G35" s="35" t="inlineStr"/>
       <c r="H35" s="40" t="inlineStr"/>
+      <c r="I35" s="36" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="24" t="n">
@@ -1757,6 +1857,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="I36" s="36" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="24" t="n">
@@ -1789,6 +1890,7 @@
       </c>
       <c r="G37" s="35" t="inlineStr"/>
       <c r="H37" s="40" t="inlineStr"/>
+      <c r="I37" s="36" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="24" t="n">
@@ -1809,6 +1911,7 @@
       </c>
       <c r="G38" s="35" t="inlineStr"/>
       <c r="H38" s="40" t="inlineStr"/>
+      <c r="I38" s="36" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1816,7 +1919,7 @@
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1"/>
-    <mergeCell ref="H1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -71,12 +71,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEB972A"/>
+        <fgColor rgb="FFFC8DD0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFC8DD0"/>
+        <fgColor rgb="FFEB972A"/>
       </patternFill>
     </fill>
     <fill>
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -283,34 +283,37 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -324,7 +327,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -379,6 +382,9 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,9 +393,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,7 +739,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="A1:H38"/>
+      <selection activeCell="H9" sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -745,8 +748,8 @@
     <col width="39.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="9.109375" bestFit="1" customWidth="1" min="3" max="5"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="16.109375" bestFit="1" customWidth="1" min="7" max="8"/>
-    <col width="9.109375" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="16.109375" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="9.109375" bestFit="1" customWidth="1" min="8" max="9"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="9.109375" bestFit="1" customWidth="1" min="11" max="12"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="13" max="13"/>
@@ -758,1160 +761,1188 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="21" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="21" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>Nama Siswa</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="27" t="inlineStr">
         <is>
           <t>Minggu Ke-11</t>
         </is>
       </c>
-      <c r="D1" s="26" t="n"/>
-      <c r="E1" s="26" t="n"/>
-      <c r="F1" s="26" t="n"/>
-      <c r="G1" s="27" t="inlineStr">
+      <c r="D1" s="27" t="n"/>
+      <c r="E1" s="27" t="n"/>
+      <c r="F1" s="27" t="n"/>
+      <c r="G1" s="28" t="inlineStr">
         <is>
           <t>Minggu Ke-12</t>
         </is>
       </c>
-      <c r="H1" s="28" t="inlineStr">
+      <c r="H1" s="29" t="inlineStr">
         <is>
           <t>Minggu Ke-13</t>
         </is>
       </c>
-      <c r="I1" s="28" t="n"/>
+      <c r="I1" s="29" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="29" t="n"/>
-      <c r="B2" s="29" t="n"/>
-      <c r="C2" s="30" t="inlineStr">
+      <c r="A2" s="30" t="n"/>
+      <c r="B2" s="30" t="n"/>
+      <c r="C2" s="31" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
-      <c r="D2" s="30" t="inlineStr">
+      <c r="D2" s="31" t="inlineStr">
         <is>
           <t>Tugas 2</t>
         </is>
       </c>
-      <c r="E2" s="30" t="inlineStr">
+      <c r="E2" s="31" t="inlineStr">
         <is>
           <t>Tugas 3</t>
         </is>
       </c>
-      <c r="F2" s="30" t="inlineStr">
+      <c r="F2" s="31" t="inlineStr">
         <is>
           <t>Tugas 4</t>
         </is>
       </c>
-      <c r="G2" s="31" t="inlineStr">
+      <c r="G2" s="32" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
-      <c r="H2" s="32" t="inlineStr">
+      <c r="H2" s="33" t="inlineStr">
         <is>
           <t>Tugas 1</t>
         </is>
       </c>
-      <c r="I2" s="32" t="inlineStr">
+      <c r="I2" s="33" t="inlineStr">
         <is>
           <t>Tugas 2</t>
         </is>
       </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="33" t="n"/>
-      <c r="B3" s="33" t="n"/>
-      <c r="C3" s="34" t="inlineStr">
+      <c r="A3" s="34" t="n"/>
+      <c r="B3" s="34" t="n"/>
+      <c r="C3" s="35" t="inlineStr">
         <is>
           <t>MAT11</t>
         </is>
       </c>
-      <c r="D3" s="34" t="inlineStr">
+      <c r="D3" s="35" t="inlineStr">
         <is>
           <t>BASDA3</t>
         </is>
       </c>
-      <c r="E3" s="34" t="inlineStr">
+      <c r="E3" s="35" t="inlineStr">
         <is>
           <t>BING7</t>
         </is>
       </c>
-      <c r="F3" s="34" t="inlineStr">
+      <c r="F3" s="35" t="inlineStr">
         <is>
           <t>PAI11</t>
         </is>
       </c>
-      <c r="G3" s="35" t="inlineStr">
+      <c r="G3" s="36" t="inlineStr">
         <is>
           <t>MAT12</t>
         </is>
       </c>
-      <c r="H3" s="36" t="inlineStr">
+      <c r="H3" s="37" t="inlineStr">
         <is>
           <t>MAT13</t>
         </is>
       </c>
-      <c r="I3" s="36" t="inlineStr">
+      <c r="I3" s="37" t="inlineStr">
         <is>
           <t>PPL3</t>
         </is>
       </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="24" t="n">
+      <c r="A4" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="inlineStr">
+      <c r="B4" s="26" t="inlineStr">
         <is>
           <t>Abu Abdirrahman Zenky</t>
         </is>
       </c>
-      <c r="C4" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D4" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E4" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F4" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G4" s="39" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H4" s="40" t="inlineStr"/>
-      <c r="I4" s="36" t="inlineStr"/>
+      <c r="C4" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D4" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E4" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F4" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G4" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H4" s="41" t="inlineStr"/>
+      <c r="I4" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="24" t="n">
+      <c r="A5" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="inlineStr">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>Alief Faza Rizqi Adi Jaya</t>
         </is>
       </c>
-      <c r="C5" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D5" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E5" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F5" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G5" s="39" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H5" s="40" t="inlineStr"/>
-      <c r="I5" s="36" t="inlineStr"/>
+      <c r="C5" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D5" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E5" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F5" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G5" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H5" s="41" t="inlineStr"/>
+      <c r="I5" s="37" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="24" t="n">
+      <c r="A6" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="25" t="inlineStr">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>Alief Mastari</t>
         </is>
       </c>
-      <c r="C6" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D6" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E6" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F6" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G6" s="39" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H6" s="40" t="inlineStr"/>
-      <c r="I6" s="45" t="inlineStr">
+      <c r="C6" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D6" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E6" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F6" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G6" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H6" s="41" t="inlineStr"/>
+      <c r="I6" s="42" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="24" t="n">
+      <c r="A7" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="25" t="inlineStr">
+      <c r="B7" s="26" t="inlineStr">
         <is>
           <t>Arif Fathurrahman</t>
         </is>
       </c>
-      <c r="C7" s="34" t="inlineStr"/>
-      <c r="D7" s="41" t="inlineStr"/>
-      <c r="E7" s="34" t="inlineStr"/>
-      <c r="F7" s="41" t="inlineStr"/>
-      <c r="G7" s="35" t="inlineStr"/>
-      <c r="H7" s="40" t="inlineStr"/>
-      <c r="I7" s="36" t="inlineStr"/>
+      <c r="C7" s="35" t="inlineStr"/>
+      <c r="D7" s="43" t="inlineStr"/>
+      <c r="E7" s="35" t="inlineStr"/>
+      <c r="F7" s="43" t="inlineStr"/>
+      <c r="G7" s="36" t="inlineStr"/>
+      <c r="H7" s="41" t="inlineStr"/>
+      <c r="I7" s="37" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="24" t="n">
+      <c r="A8" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="25" t="inlineStr">
+      <c r="B8" s="26" t="inlineStr">
         <is>
           <t>Cindy Anastasya Kurniawan Oey</t>
         </is>
       </c>
-      <c r="C8" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D8" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E8" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F8" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G8" s="39" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H8" s="40" t="inlineStr"/>
-      <c r="I8" s="36" t="inlineStr"/>
+      <c r="C8" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D8" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E8" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F8" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G8" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H8" s="41" t="inlineStr"/>
+      <c r="I8" s="37" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
-      <c r="A9" s="24" t="n">
+      <c r="A9" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="25" t="inlineStr">
+      <c r="B9" s="26" t="inlineStr">
         <is>
           <t>Cleolia Jasmine Nasution</t>
         </is>
       </c>
-      <c r="C9" s="34" t="inlineStr"/>
-      <c r="D9" s="41" t="inlineStr"/>
-      <c r="E9" s="34" t="inlineStr"/>
-      <c r="F9" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G9" s="35" t="inlineStr"/>
-      <c r="H9" s="40" t="inlineStr"/>
-      <c r="I9" s="36" t="inlineStr"/>
+      <c r="C9" s="35" t="inlineStr"/>
+      <c r="D9" s="43" t="inlineStr"/>
+      <c r="E9" s="35" t="inlineStr"/>
+      <c r="F9" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G9" s="36" t="inlineStr"/>
+      <c r="H9" s="41" t="inlineStr"/>
+      <c r="I9" s="37" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="24" t="n">
+      <c r="A10" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="25" t="inlineStr">
+      <c r="B10" s="26" t="inlineStr">
         <is>
           <t>Dian Fitriani Aulia</t>
         </is>
       </c>
-      <c r="C10" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D10" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E10" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F10" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G10" s="39" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H10" s="40" t="inlineStr"/>
-      <c r="I10" s="36" t="inlineStr"/>
+      <c r="C10" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D10" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E10" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F10" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G10" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H10" s="41" t="inlineStr"/>
+      <c r="I10" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="24" t="n">
+      <c r="A11" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="25" t="inlineStr">
+      <c r="B11" s="26" t="inlineStr">
         <is>
           <t>Dinda Fatchus Sabila Fa'izatur Rahmah</t>
         </is>
       </c>
-      <c r="C11" s="34" t="inlineStr"/>
-      <c r="D11" s="41" t="inlineStr"/>
-      <c r="E11" s="34" t="inlineStr"/>
-      <c r="F11" s="41" t="inlineStr"/>
-      <c r="G11" s="35" t="inlineStr"/>
-      <c r="H11" s="40" t="inlineStr"/>
-      <c r="I11" s="36" t="inlineStr"/>
+      <c r="C11" s="35" t="inlineStr"/>
+      <c r="D11" s="43" t="inlineStr"/>
+      <c r="E11" s="35" t="inlineStr"/>
+      <c r="F11" s="43" t="inlineStr"/>
+      <c r="G11" s="36" t="inlineStr"/>
+      <c r="H11" s="41" t="inlineStr"/>
+      <c r="I11" s="37" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="24" t="n">
+      <c r="A12" s="25" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="25" t="inlineStr">
+      <c r="B12" s="26" t="inlineStr">
         <is>
           <t>Dinda Nur Apriani</t>
         </is>
       </c>
-      <c r="C12" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D12" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E12" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F12" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G12" s="39" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H12" s="42" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="I12" s="36" t="inlineStr"/>
+      <c r="C12" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D12" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E12" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F12" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G12" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H12" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I12" s="37" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="24" t="n">
+      <c r="A13" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="25" t="inlineStr">
+      <c r="B13" s="26" t="inlineStr">
         <is>
           <t>Farhan Nur Aliani</t>
         </is>
       </c>
-      <c r="C13" s="34" t="inlineStr"/>
-      <c r="D13" s="41" t="inlineStr"/>
-      <c r="E13" s="34" t="inlineStr"/>
-      <c r="F13" s="41" t="inlineStr"/>
-      <c r="G13" s="35" t="inlineStr"/>
-      <c r="H13" s="40" t="inlineStr"/>
-      <c r="I13" s="36" t="inlineStr"/>
+      <c r="C13" s="35" t="inlineStr"/>
+      <c r="D13" s="43" t="inlineStr"/>
+      <c r="E13" s="35" t="inlineStr"/>
+      <c r="F13" s="43" t="inlineStr"/>
+      <c r="G13" s="36" t="inlineStr"/>
+      <c r="H13" s="41" t="inlineStr"/>
+      <c r="I13" s="37" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="24" t="n">
+      <c r="A14" s="25" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="25" t="inlineStr">
+      <c r="B14" s="26" t="inlineStr">
         <is>
           <t>Hesal Adrian</t>
         </is>
       </c>
-      <c r="C14" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D14" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E14" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F14" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G14" s="39" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H14" s="40" t="inlineStr"/>
-      <c r="I14" s="36" t="inlineStr"/>
+      <c r="C14" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D14" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E14" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F14" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G14" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H14" s="41" t="inlineStr"/>
+      <c r="I14" s="37" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="24" t="n">
+      <c r="A15" s="25" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="25" t="inlineStr">
+      <c r="B15" s="26" t="inlineStr">
         <is>
           <t>Keatryn Kezia P. Sihombing</t>
         </is>
       </c>
-      <c r="C15" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D15" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E15" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F15" s="41" t="inlineStr">
+      <c r="C15" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D15" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E15" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F15" s="43" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G15" s="39" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H15" s="40" t="inlineStr"/>
-      <c r="I15" s="36" t="inlineStr"/>
+      <c r="G15" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H15" s="41" t="inlineStr"/>
+      <c r="I15" s="37" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="24" t="n">
+      <c r="A16" s="25" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="25" t="inlineStr">
+      <c r="B16" s="26" t="inlineStr">
         <is>
           <t>Mohammad Ilham Saputra</t>
         </is>
       </c>
-      <c r="C16" s="34" t="inlineStr"/>
-      <c r="D16" s="41" t="inlineStr"/>
-      <c r="E16" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F16" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G16" s="35" t="inlineStr"/>
-      <c r="H16" s="40" t="inlineStr"/>
-      <c r="I16" s="36" t="inlineStr"/>
+      <c r="C16" s="35" t="inlineStr"/>
+      <c r="D16" s="43" t="inlineStr"/>
+      <c r="E16" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F16" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G16" s="36" t="inlineStr"/>
+      <c r="H16" s="41" t="inlineStr"/>
+      <c r="I16" s="37" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="24" t="n">
+      <c r="A17" s="25" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="25" t="inlineStr">
+      <c r="B17" s="26" t="inlineStr">
         <is>
           <t>Muhammad Akbar Ariq Jeconia Lesmana</t>
         </is>
       </c>
-      <c r="C17" s="34" t="inlineStr"/>
-      <c r="D17" s="41" t="inlineStr"/>
-      <c r="E17" s="34" t="inlineStr"/>
-      <c r="F17" s="41" t="inlineStr"/>
-      <c r="G17" s="35" t="inlineStr"/>
-      <c r="H17" s="40" t="inlineStr"/>
-      <c r="I17" s="36" t="inlineStr"/>
+      <c r="C17" s="35" t="inlineStr"/>
+      <c r="D17" s="43" t="inlineStr"/>
+      <c r="E17" s="35" t="inlineStr"/>
+      <c r="F17" s="43" t="inlineStr"/>
+      <c r="G17" s="36" t="inlineStr"/>
+      <c r="H17" s="41" t="inlineStr"/>
+      <c r="I17" s="37" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
-      <c r="A18" s="24" t="n">
+      <c r="A18" s="25" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="25" t="inlineStr">
+      <c r="B18" s="26" t="inlineStr">
         <is>
           <t>Muhammad Asmaul Adam</t>
         </is>
       </c>
-      <c r="C18" s="34" t="inlineStr"/>
-      <c r="D18" s="41" t="inlineStr"/>
-      <c r="E18" s="34" t="inlineStr"/>
-      <c r="F18" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G18" s="35" t="inlineStr"/>
-      <c r="H18" s="40" t="inlineStr"/>
-      <c r="I18" s="36" t="inlineStr"/>
+      <c r="C18" s="35" t="inlineStr"/>
+      <c r="D18" s="43" t="inlineStr"/>
+      <c r="E18" s="35" t="inlineStr"/>
+      <c r="F18" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G18" s="36" t="inlineStr"/>
+      <c r="H18" s="41" t="inlineStr"/>
+      <c r="I18" s="37" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
-      <c r="A19" s="24" t="n">
+      <c r="A19" s="25" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="25" t="inlineStr">
+      <c r="B19" s="26" t="inlineStr">
         <is>
           <t>Muhammad Athala Romero</t>
         </is>
       </c>
-      <c r="C19" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D19" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E19" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F19" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G19" s="39" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H19" s="40" t="inlineStr"/>
-      <c r="I19" s="36" t="inlineStr"/>
+      <c r="C19" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D19" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E19" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F19" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G19" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H19" s="41" t="inlineStr"/>
+      <c r="I19" s="37" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" s="24" t="n">
+      <c r="A20" s="25" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="25" t="inlineStr">
+      <c r="B20" s="26" t="inlineStr">
         <is>
           <t>Muhammad Farhan</t>
         </is>
       </c>
-      <c r="C20" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D20" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E20" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F20" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G20" s="39" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H20" s="40" t="inlineStr"/>
-      <c r="I20" s="36" t="inlineStr"/>
+      <c r="C20" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D20" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E20" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F20" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G20" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H20" s="41" t="inlineStr"/>
+      <c r="I20" s="37" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" s="24" t="n">
+      <c r="A21" s="25" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="25" t="inlineStr">
+      <c r="B21" s="26" t="inlineStr">
         <is>
           <t>Muhammad Ilham Dzaki</t>
         </is>
       </c>
-      <c r="C21" s="34" t="inlineStr"/>
-      <c r="D21" s="41" t="inlineStr"/>
-      <c r="E21" s="34" t="inlineStr"/>
-      <c r="F21" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G21" s="35" t="inlineStr"/>
-      <c r="H21" s="40" t="inlineStr"/>
-      <c r="I21" s="36" t="inlineStr"/>
+      <c r="C21" s="35" t="inlineStr"/>
+      <c r="D21" s="43" t="inlineStr"/>
+      <c r="E21" s="35" t="inlineStr"/>
+      <c r="F21" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G21" s="36" t="inlineStr"/>
+      <c r="H21" s="41" t="inlineStr"/>
+      <c r="I21" s="37" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
-      <c r="A22" s="24" t="n">
+      <c r="A22" s="25" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="25" t="inlineStr">
+      <c r="B22" s="26" t="inlineStr">
         <is>
           <t>Muhammad Ridwan</t>
         </is>
       </c>
-      <c r="C22" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D22" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E22" s="34" t="inlineStr"/>
-      <c r="F22" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G22" s="35" t="inlineStr"/>
-      <c r="H22" s="40" t="inlineStr"/>
-      <c r="I22" s="36" t="inlineStr"/>
+      <c r="C22" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D22" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E22" s="35" t="inlineStr"/>
+      <c r="F22" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G22" s="36" t="inlineStr"/>
+      <c r="H22" s="41" t="inlineStr"/>
+      <c r="I22" s="37" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="24" t="n">
+      <c r="A23" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="25" t="inlineStr">
+      <c r="B23" s="26" t="inlineStr">
         <is>
           <t>Muhammad Saputra</t>
         </is>
       </c>
-      <c r="C23" s="34" t="inlineStr"/>
-      <c r="D23" s="41" t="inlineStr"/>
-      <c r="E23" s="34" t="inlineStr"/>
-      <c r="F23" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G23" s="35" t="inlineStr"/>
-      <c r="H23" s="40" t="inlineStr"/>
-      <c r="I23" s="36" t="inlineStr"/>
+      <c r="C23" s="35" t="inlineStr"/>
+      <c r="D23" s="43" t="inlineStr"/>
+      <c r="E23" s="35" t="inlineStr"/>
+      <c r="F23" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G23" s="36" t="inlineStr"/>
+      <c r="H23" s="41" t="inlineStr"/>
+      <c r="I23" s="37" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="24" t="n">
+      <c r="A24" s="25" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="25" t="inlineStr">
+      <c r="B24" s="26" t="inlineStr">
         <is>
           <t>Muhammad Yusuf</t>
         </is>
       </c>
-      <c r="C24" s="34" t="inlineStr"/>
-      <c r="D24" s="41" t="inlineStr"/>
-      <c r="E24" s="34" t="inlineStr"/>
-      <c r="F24" s="41" t="inlineStr"/>
-      <c r="G24" s="35" t="inlineStr"/>
-      <c r="H24" s="40" t="inlineStr"/>
-      <c r="I24" s="36" t="inlineStr"/>
+      <c r="C24" s="35" t="inlineStr"/>
+      <c r="D24" s="43" t="inlineStr"/>
+      <c r="E24" s="35" t="inlineStr"/>
+      <c r="F24" s="43" t="inlineStr"/>
+      <c r="G24" s="36" t="inlineStr"/>
+      <c r="H24" s="41" t="inlineStr"/>
+      <c r="I24" s="37" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="24" t="n">
+      <c r="A25" s="25" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="25" t="inlineStr">
+      <c r="B25" s="26" t="inlineStr">
         <is>
           <t>Nasywa Mawaddah</t>
         </is>
       </c>
-      <c r="C25" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D25" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E25" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F25" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G25" s="39" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H25" s="40" t="inlineStr"/>
-      <c r="I25" s="36" t="inlineStr"/>
+      <c r="C25" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D25" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E25" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F25" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G25" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H25" s="41" t="inlineStr"/>
+      <c r="I25" s="37" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="24" t="n">
+      <c r="A26" s="25" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="25" t="inlineStr">
+      <c r="B26" s="26" t="inlineStr">
         <is>
           <t>Natasya Indah Salsabila</t>
         </is>
       </c>
-      <c r="C26" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D26" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E26" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F26" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G26" s="39" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H26" s="40" t="inlineStr"/>
-      <c r="I26" s="36" t="inlineStr"/>
+      <c r="C26" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D26" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E26" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F26" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G26" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H26" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I26" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="24" t="n">
+      <c r="A27" s="25" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="25" t="inlineStr">
+      <c r="B27" s="26" t="inlineStr">
         <is>
           <t>Nicholas Davin Yang</t>
         </is>
       </c>
-      <c r="C27" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D27" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E27" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F27" s="41" t="inlineStr">
+      <c r="C27" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D27" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E27" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F27" s="43" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G27" s="39" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H27" s="40" t="inlineStr"/>
-      <c r="I27" s="36" t="inlineStr"/>
+      <c r="G27" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H27" s="41" t="inlineStr"/>
+      <c r="I27" s="37" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="24" t="n">
+      <c r="A28" s="25" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="25" t="inlineStr">
+      <c r="B28" s="26" t="inlineStr">
         <is>
           <t>Nouridza Juniansah Ridhan</t>
         </is>
       </c>
-      <c r="C28" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D28" s="41" t="inlineStr"/>
-      <c r="E28" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F28" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G28" s="39" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H28" s="42" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="I28" s="36" t="inlineStr"/>
+      <c r="C28" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D28" s="43" t="inlineStr"/>
+      <c r="E28" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F28" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G28" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H28" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I28" s="37" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="24" t="n">
+      <c r="A29" s="25" t="n">
         <v>26</v>
       </c>
-      <c r="B29" s="25" t="inlineStr">
+      <c r="B29" s="26" t="inlineStr">
         <is>
           <t>O'neil Kerry Laurent</t>
         </is>
       </c>
-      <c r="C29" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D29" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E29" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F29" s="41" t="inlineStr">
+      <c r="C29" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D29" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E29" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F29" s="43" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G29" s="35" t="inlineStr"/>
-      <c r="H29" s="40" t="inlineStr"/>
-      <c r="I29" s="36" t="inlineStr"/>
+      <c r="G29" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H29" s="41" t="inlineStr"/>
+      <c r="I29" s="37" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="24" t="n">
+      <c r="A30" s="25" t="n">
         <v>27</v>
       </c>
-      <c r="B30" s="25" t="inlineStr">
+      <c r="B30" s="26" t="inlineStr">
         <is>
           <t>Rafli Febryan</t>
         </is>
       </c>
-      <c r="C30" s="34" t="inlineStr"/>
-      <c r="D30" s="41" t="inlineStr"/>
-      <c r="E30" s="34" t="inlineStr"/>
-      <c r="F30" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G30" s="35" t="inlineStr"/>
-      <c r="H30" s="40" t="inlineStr"/>
-      <c r="I30" s="36" t="inlineStr"/>
+      <c r="C30" s="35" t="inlineStr"/>
+      <c r="D30" s="43" t="inlineStr"/>
+      <c r="E30" s="35" t="inlineStr"/>
+      <c r="F30" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G30" s="36" t="inlineStr"/>
+      <c r="H30" s="41" t="inlineStr"/>
+      <c r="I30" s="37" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="24" t="n">
+      <c r="A31" s="25" t="n">
         <v>28</v>
       </c>
-      <c r="B31" s="25" t="inlineStr">
+      <c r="B31" s="26" t="inlineStr">
         <is>
           <t>Raihan Pratama Putra</t>
         </is>
       </c>
-      <c r="C31" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D31" s="41" t="inlineStr"/>
-      <c r="E31" s="34" t="inlineStr"/>
-      <c r="F31" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G31" s="39" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H31" s="40" t="inlineStr"/>
-      <c r="I31" s="36" t="inlineStr"/>
+      <c r="C31" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D31" s="43" t="inlineStr"/>
+      <c r="E31" s="35" t="inlineStr"/>
+      <c r="F31" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G31" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H31" s="41" t="inlineStr"/>
+      <c r="I31" s="37" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="24" t="n">
+      <c r="A32" s="25" t="n">
         <v>29</v>
       </c>
-      <c r="B32" s="25" t="inlineStr">
+      <c r="B32" s="26" t="inlineStr">
         <is>
           <t>Rizky Irswanda Ramadhana</t>
         </is>
       </c>
-      <c r="C32" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D32" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E32" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F32" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G32" s="39" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H32" s="40" t="inlineStr"/>
-      <c r="I32" s="36" t="inlineStr"/>
+      <c r="C32" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D32" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E32" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F32" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G32" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H32" s="41" t="inlineStr"/>
+      <c r="I32" s="37" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="24" t="n">
+      <c r="A33" s="25" t="n">
         <v>30</v>
       </c>
-      <c r="B33" s="25" t="inlineStr">
+      <c r="B33" s="26" t="inlineStr">
         <is>
           <t>Salsabila Nur Fairuz</t>
         </is>
       </c>
-      <c r="C33" s="34" t="inlineStr"/>
-      <c r="D33" s="41" t="inlineStr"/>
-      <c r="E33" s="34" t="inlineStr"/>
-      <c r="F33" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G33" s="35" t="inlineStr"/>
-      <c r="H33" s="40" t="inlineStr"/>
-      <c r="I33" s="36" t="inlineStr"/>
+      <c r="C33" s="35" t="inlineStr"/>
+      <c r="D33" s="43" t="inlineStr"/>
+      <c r="E33" s="35" t="inlineStr"/>
+      <c r="F33" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G33" s="36" t="inlineStr"/>
+      <c r="H33" s="41" t="inlineStr"/>
+      <c r="I33" s="37" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="24" t="n">
+      <c r="A34" s="25" t="n">
         <v>31</v>
       </c>
-      <c r="B34" s="25" t="inlineStr">
+      <c r="B34" s="26" t="inlineStr">
         <is>
           <t>Shabrina Cahyani</t>
         </is>
       </c>
-      <c r="C34" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D34" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E34" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F34" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G34" s="35" t="inlineStr"/>
-      <c r="H34" s="40" t="inlineStr"/>
-      <c r="I34" s="36" t="inlineStr"/>
+      <c r="C34" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D34" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E34" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F34" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G34" s="36" t="inlineStr"/>
+      <c r="H34" s="41" t="inlineStr"/>
+      <c r="I34" s="37" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="24" t="n">
+      <c r="A35" s="25" t="n">
         <v>32</v>
       </c>
-      <c r="B35" s="25" t="inlineStr">
+      <c r="B35" s="26" t="inlineStr">
         <is>
           <t>Silvana Putri Ariani</t>
         </is>
       </c>
-      <c r="C35" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D35" s="41" t="inlineStr"/>
-      <c r="E35" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F35" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G35" s="35" t="inlineStr"/>
-      <c r="H35" s="40" t="inlineStr"/>
-      <c r="I35" s="36" t="inlineStr"/>
+      <c r="C35" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D35" s="43" t="inlineStr"/>
+      <c r="E35" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F35" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G35" s="36" t="inlineStr"/>
+      <c r="H35" s="41" t="inlineStr"/>
+      <c r="I35" s="37" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" s="24" t="n">
+      <c r="A36" s="25" t="n">
         <v>33</v>
       </c>
-      <c r="B36" s="25" t="inlineStr">
+      <c r="B36" s="26" t="inlineStr">
         <is>
           <t>T.S Firdaus</t>
         </is>
       </c>
-      <c r="C36" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D36" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E36" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F36" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G36" s="39" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="H36" s="42" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="I36" s="36" t="inlineStr"/>
+      <c r="C36" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D36" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E36" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F36" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G36" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H36" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I36" s="37" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
-      <c r="A37" s="24" t="n">
+      <c r="A37" s="25" t="n">
         <v>34</v>
       </c>
-      <c r="B37" s="25" t="inlineStr">
+      <c r="B37" s="26" t="inlineStr">
         <is>
           <t>Usama Fadlillah</t>
         </is>
       </c>
-      <c r="C37" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="D37" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="E37" s="37" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="F37" s="38" t="inlineStr">
-        <is>
-          <t>ü</t>
-        </is>
-      </c>
-      <c r="G37" s="35" t="inlineStr"/>
-      <c r="H37" s="40" t="inlineStr"/>
-      <c r="I37" s="36" t="inlineStr"/>
+      <c r="C37" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="D37" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E37" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F37" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="G37" s="36" t="inlineStr"/>
+      <c r="H37" s="41" t="inlineStr"/>
+      <c r="I37" s="37" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
-      <c r="A38" s="24" t="n">
+      <c r="A38" s="25" t="n">
         <v>35</v>
       </c>
-      <c r="B38" s="25" t="inlineStr">
+      <c r="B38" s="26" t="inlineStr">
         <is>
           <t>Yehezkiel Dio Sinolungan</t>
         </is>
       </c>
-      <c r="C38" s="34" t="inlineStr"/>
-      <c r="D38" s="41" t="inlineStr"/>
-      <c r="E38" s="34" t="inlineStr"/>
-      <c r="F38" s="41" t="inlineStr">
+      <c r="C38" s="35" t="inlineStr"/>
+      <c r="D38" s="39" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="E38" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="F38" s="43" t="inlineStr">
         <is>
           <t>NON-MUS</t>
         </is>
       </c>
-      <c r="G38" s="35" t="inlineStr"/>
-      <c r="H38" s="40" t="inlineStr"/>
-      <c r="I38" s="36" t="inlineStr"/>
+      <c r="G38" s="36" t="inlineStr"/>
+      <c r="H38" s="41" t="inlineStr"/>
+      <c r="I38" s="37" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -1160,7 +1160,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I12" s="37" t="inlineStr"/>
+      <c r="I12" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="25" t="n">
@@ -1213,8 +1217,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H14" s="41" t="inlineStr"/>
-      <c r="I14" s="37" t="inlineStr"/>
+      <c r="H14" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I14" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="25" t="n">
@@ -1755,8 +1767,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H32" s="41" t="inlineStr"/>
-      <c r="I32" s="37" t="inlineStr"/>
+      <c r="H32" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I32" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="25" t="n">
@@ -1808,9 +1828,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G34" s="36" t="inlineStr"/>
-      <c r="H34" s="41" t="inlineStr"/>
-      <c r="I34" s="37" t="inlineStr"/>
+      <c r="G34" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="H34" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I34" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="25" t="n">
@@ -1911,7 +1943,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G37" s="36" t="inlineStr"/>
+      <c r="G37" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H37" s="41" t="inlineStr"/>
       <c r="I37" s="37" t="inlineStr"/>
     </row>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -736,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H9" sqref="A1:I38"/>
@@ -790,6 +790,7 @@
         </is>
       </c>
       <c r="I1" s="29" t="n"/>
+      <c r="J1" s="29" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="30" t="n"/>
@@ -829,6 +830,11 @@
           <t>Tugas 2</t>
         </is>
       </c>
+      <c r="J2" s="33" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="34" t="n"/>
@@ -868,6 +874,11 @@
           <t>PPL3</t>
         </is>
       </c>
+      <c r="J3" s="37" t="inlineStr">
+        <is>
+          <t>BING8</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="25" t="n">
@@ -909,6 +920,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J4" s="41" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="25" t="n">
@@ -946,6 +958,7 @@
       </c>
       <c r="H5" s="41" t="inlineStr"/>
       <c r="I5" s="37" t="inlineStr"/>
+      <c r="J5" s="41" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="25" t="n">
@@ -987,6 +1000,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J6" s="41" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="25" t="n">
@@ -1004,6 +1018,7 @@
       <c r="G7" s="36" t="inlineStr"/>
       <c r="H7" s="41" t="inlineStr"/>
       <c r="I7" s="37" t="inlineStr"/>
+      <c r="J7" s="41" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="25" t="n">
@@ -1041,6 +1056,7 @@
       </c>
       <c r="H8" s="41" t="inlineStr"/>
       <c r="I8" s="37" t="inlineStr"/>
+      <c r="J8" s="41" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="25" t="n">
@@ -1062,6 +1078,7 @@
       <c r="G9" s="36" t="inlineStr"/>
       <c r="H9" s="41" t="inlineStr"/>
       <c r="I9" s="37" t="inlineStr"/>
+      <c r="J9" s="41" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="25" t="n">
@@ -1103,6 +1120,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J10" s="41" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="25" t="n">
@@ -1120,6 +1138,7 @@
       <c r="G11" s="36" t="inlineStr"/>
       <c r="H11" s="41" t="inlineStr"/>
       <c r="I11" s="37" t="inlineStr"/>
+      <c r="J11" s="41" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="25" t="n">
@@ -1165,6 +1184,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J12" s="41" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="25" t="n">
@@ -1182,6 +1202,7 @@
       <c r="G13" s="36" t="inlineStr"/>
       <c r="H13" s="41" t="inlineStr"/>
       <c r="I13" s="37" t="inlineStr"/>
+      <c r="J13" s="41" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="25" t="n">
@@ -1227,6 +1248,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J14" s="41" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="25" t="n">
@@ -1263,7 +1285,12 @@
         </is>
       </c>
       <c r="H15" s="41" t="inlineStr"/>
-      <c r="I15" s="37" t="inlineStr"/>
+      <c r="I15" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J15" s="41" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="25" t="n">
@@ -1289,6 +1316,7 @@
       <c r="G16" s="36" t="inlineStr"/>
       <c r="H16" s="41" t="inlineStr"/>
       <c r="I16" s="37" t="inlineStr"/>
+      <c r="J16" s="41" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="25" t="n">
@@ -1306,6 +1334,7 @@
       <c r="G17" s="36" t="inlineStr"/>
       <c r="H17" s="41" t="inlineStr"/>
       <c r="I17" s="37" t="inlineStr"/>
+      <c r="J17" s="41" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="25" t="n">
@@ -1327,6 +1356,7 @@
       <c r="G18" s="36" t="inlineStr"/>
       <c r="H18" s="41" t="inlineStr"/>
       <c r="I18" s="37" t="inlineStr"/>
+      <c r="J18" s="41" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="25" t="n">
@@ -1364,6 +1394,7 @@
       </c>
       <c r="H19" s="41" t="inlineStr"/>
       <c r="I19" s="37" t="inlineStr"/>
+      <c r="J19" s="41" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="25" t="n">
@@ -1401,6 +1432,7 @@
       </c>
       <c r="H20" s="41" t="inlineStr"/>
       <c r="I20" s="37" t="inlineStr"/>
+      <c r="J20" s="41" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="25" t="n">
@@ -1422,6 +1454,7 @@
       <c r="G21" s="36" t="inlineStr"/>
       <c r="H21" s="41" t="inlineStr"/>
       <c r="I21" s="37" t="inlineStr"/>
+      <c r="J21" s="41" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="25" t="n">
@@ -1451,6 +1484,7 @@
       <c r="G22" s="36" t="inlineStr"/>
       <c r="H22" s="41" t="inlineStr"/>
       <c r="I22" s="37" t="inlineStr"/>
+      <c r="J22" s="41" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="25" t="n">
@@ -1472,6 +1506,7 @@
       <c r="G23" s="36" t="inlineStr"/>
       <c r="H23" s="41" t="inlineStr"/>
       <c r="I23" s="37" t="inlineStr"/>
+      <c r="J23" s="41" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="25" t="n">
@@ -1489,6 +1524,7 @@
       <c r="G24" s="36" t="inlineStr"/>
       <c r="H24" s="41" t="inlineStr"/>
       <c r="I24" s="37" t="inlineStr"/>
+      <c r="J24" s="41" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="25" t="n">
@@ -1526,6 +1562,7 @@
       </c>
       <c r="H25" s="41" t="inlineStr"/>
       <c r="I25" s="37" t="inlineStr"/>
+      <c r="J25" s="41" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="25" t="n">
@@ -1571,6 +1608,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J26" s="41" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="25" t="n">
@@ -1608,6 +1646,7 @@
       </c>
       <c r="H27" s="41" t="inlineStr"/>
       <c r="I27" s="37" t="inlineStr"/>
+      <c r="J27" s="41" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="25" t="n">
@@ -1645,6 +1684,7 @@
         </is>
       </c>
       <c r="I28" s="37" t="inlineStr"/>
+      <c r="J28" s="41" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="25" t="n">
@@ -1682,6 +1722,7 @@
       </c>
       <c r="H29" s="41" t="inlineStr"/>
       <c r="I29" s="37" t="inlineStr"/>
+      <c r="J29" s="41" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="25" t="n">
@@ -1703,6 +1744,7 @@
       <c r="G30" s="36" t="inlineStr"/>
       <c r="H30" s="41" t="inlineStr"/>
       <c r="I30" s="37" t="inlineStr"/>
+      <c r="J30" s="41" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="25" t="n">
@@ -1732,6 +1774,7 @@
       </c>
       <c r="H31" s="41" t="inlineStr"/>
       <c r="I31" s="37" t="inlineStr"/>
+      <c r="J31" s="41" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="25" t="n">
@@ -1777,6 +1820,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J32" s="41" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="25" t="n">
@@ -1798,6 +1842,7 @@
       <c r="G33" s="36" t="inlineStr"/>
       <c r="H33" s="41" t="inlineStr"/>
       <c r="I33" s="37" t="inlineStr"/>
+      <c r="J33" s="41" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="25" t="n">
@@ -1843,6 +1888,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="J34" s="41" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="25" t="n">
@@ -1872,6 +1918,7 @@
       <c r="G35" s="36" t="inlineStr"/>
       <c r="H35" s="41" t="inlineStr"/>
       <c r="I35" s="37" t="inlineStr"/>
+      <c r="J35" s="41" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="25" t="n">
@@ -1913,6 +1960,7 @@
         </is>
       </c>
       <c r="I36" s="37" t="inlineStr"/>
+      <c r="J36" s="41" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="25" t="n">
@@ -1950,6 +1998,7 @@
       </c>
       <c r="H37" s="41" t="inlineStr"/>
       <c r="I37" s="37" t="inlineStr"/>
+      <c r="J37" s="41" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="25" t="n">
@@ -1979,6 +2028,7 @@
       <c r="G38" s="36" t="inlineStr"/>
       <c r="H38" s="41" t="inlineStr"/>
       <c r="I38" s="37" t="inlineStr"/>
+      <c r="J38" s="41" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1986,7 +2036,7 @@
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -914,13 +914,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H4" s="41" t="inlineStr"/>
+      <c r="H4" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I4" s="42" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="J4" s="41" t="inlineStr"/>
+      <c r="J4" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="25" t="n">
@@ -1315,7 +1323,11 @@
       </c>
       <c r="G16" s="36" t="inlineStr"/>
       <c r="H16" s="41" t="inlineStr"/>
-      <c r="I16" s="37" t="inlineStr"/>
+      <c r="I16" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J16" s="41" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
@@ -1392,7 +1404,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H19" s="41" t="inlineStr"/>
+      <c r="H19" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I19" s="37" t="inlineStr"/>
       <c r="J19" s="41" t="inlineStr"/>
     </row>
@@ -1484,7 +1500,11 @@
       <c r="G22" s="36" t="inlineStr"/>
       <c r="H22" s="41" t="inlineStr"/>
       <c r="I22" s="37" t="inlineStr"/>
-      <c r="J22" s="41" t="inlineStr"/>
+      <c r="J22" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="25" t="n">
@@ -1721,7 +1741,11 @@
         </is>
       </c>
       <c r="H29" s="41" t="inlineStr"/>
-      <c r="I29" s="37" t="inlineStr"/>
+      <c r="I29" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J29" s="41" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -1498,7 +1498,11 @@
         </is>
       </c>
       <c r="G22" s="36" t="inlineStr"/>
-      <c r="H22" s="41" t="inlineStr"/>
+      <c r="H22" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I22" s="37" t="inlineStr"/>
       <c r="J22" s="44" t="inlineStr">
         <is>
@@ -1580,7 +1584,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H25" s="41" t="inlineStr"/>
+      <c r="H25" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I25" s="37" t="inlineStr"/>
       <c r="J25" s="41" t="inlineStr"/>
     </row>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -52,7 +52,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -107,6 +107,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00e66cb5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008ef5f3"/>
       </patternFill>
     </fill>
   </fills>
@@ -269,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -393,6 +398,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,7 +753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H9" sqref="A1:I38"/>
@@ -791,6 +808,11 @@
       </c>
       <c r="I1" s="29" t="n"/>
       <c r="J1" s="29" t="n"/>
+      <c r="K1" s="47" t="inlineStr">
+        <is>
+          <t>Minggu Ke-14</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="30" t="n"/>
@@ -835,6 +857,11 @@
           <t>Tugas 3</t>
         </is>
       </c>
+      <c r="K2" s="48" t="inlineStr">
+        <is>
+          <t>Tugas 1</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="34" t="n"/>
@@ -879,6 +906,11 @@
           <t>BING8</t>
         </is>
       </c>
+      <c r="K3" s="49" t="inlineStr">
+        <is>
+          <t>MAT14</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="25" t="n">
@@ -929,6 +961,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="K4" s="49" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="25" t="n">
@@ -964,9 +997,14 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H5" s="41" t="inlineStr"/>
+      <c r="H5" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I5" s="37" t="inlineStr"/>
       <c r="J5" s="41" t="inlineStr"/>
+      <c r="K5" s="49" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="25" t="n">
@@ -1002,13 +1040,18 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H6" s="41" t="inlineStr"/>
+      <c r="H6" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I6" s="42" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="J6" s="41" t="inlineStr"/>
+      <c r="K6" s="49" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="25" t="n">
@@ -1027,6 +1070,7 @@
       <c r="H7" s="41" t="inlineStr"/>
       <c r="I7" s="37" t="inlineStr"/>
       <c r="J7" s="41" t="inlineStr"/>
+      <c r="K7" s="49" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="25" t="n">
@@ -1062,9 +1106,14 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H8" s="41" t="inlineStr"/>
+      <c r="H8" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I8" s="37" t="inlineStr"/>
       <c r="J8" s="41" t="inlineStr"/>
+      <c r="K8" s="49" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="25" t="n">
@@ -1087,6 +1136,7 @@
       <c r="H9" s="41" t="inlineStr"/>
       <c r="I9" s="37" t="inlineStr"/>
       <c r="J9" s="41" t="inlineStr"/>
+      <c r="K9" s="49" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="25" t="n">
@@ -1122,13 +1172,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H10" s="41" t="inlineStr"/>
+      <c r="H10" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I10" s="42" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="J10" s="41" t="inlineStr"/>
+      <c r="J10" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K10" s="49" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="25" t="n">
@@ -1147,6 +1206,7 @@
       <c r="H11" s="41" t="inlineStr"/>
       <c r="I11" s="37" t="inlineStr"/>
       <c r="J11" s="41" t="inlineStr"/>
+      <c r="K11" s="49" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="25" t="n">
@@ -1192,7 +1252,12 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J12" s="41" t="inlineStr"/>
+      <c r="J12" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K12" s="49" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="25" t="n">
@@ -1211,6 +1276,7 @@
       <c r="H13" s="41" t="inlineStr"/>
       <c r="I13" s="37" t="inlineStr"/>
       <c r="J13" s="41" t="inlineStr"/>
+      <c r="K13" s="49" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="25" t="n">
@@ -1256,7 +1322,12 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J14" s="41" t="inlineStr"/>
+      <c r="J14" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K14" s="49" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="25" t="n">
@@ -1292,13 +1363,18 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H15" s="41" t="inlineStr"/>
+      <c r="H15" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I15" s="42" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="J15" s="41" t="inlineStr"/>
+      <c r="K15" s="49" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="25" t="n">
@@ -1329,6 +1405,7 @@
         </is>
       </c>
       <c r="J16" s="41" t="inlineStr"/>
+      <c r="K16" s="49" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="25" t="n">
@@ -1347,6 +1424,7 @@
       <c r="H17" s="41" t="inlineStr"/>
       <c r="I17" s="37" t="inlineStr"/>
       <c r="J17" s="41" t="inlineStr"/>
+      <c r="K17" s="49" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="25" t="n">
@@ -1369,6 +1447,7 @@
       <c r="H18" s="41" t="inlineStr"/>
       <c r="I18" s="37" t="inlineStr"/>
       <c r="J18" s="41" t="inlineStr"/>
+      <c r="K18" s="49" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="25" t="n">
@@ -1411,6 +1490,7 @@
       </c>
       <c r="I19" s="37" t="inlineStr"/>
       <c r="J19" s="41" t="inlineStr"/>
+      <c r="K19" s="49" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="25" t="n">
@@ -1446,9 +1526,14 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H20" s="41" t="inlineStr"/>
+      <c r="H20" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I20" s="37" t="inlineStr"/>
       <c r="J20" s="41" t="inlineStr"/>
+      <c r="K20" s="49" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="25" t="n">
@@ -1470,7 +1555,12 @@
       <c r="G21" s="36" t="inlineStr"/>
       <c r="H21" s="41" t="inlineStr"/>
       <c r="I21" s="37" t="inlineStr"/>
-      <c r="J21" s="41" t="inlineStr"/>
+      <c r="J21" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K21" s="49" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="25" t="n">
@@ -1509,6 +1599,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="K22" s="49" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="25" t="n">
@@ -1531,6 +1622,7 @@
       <c r="H23" s="41" t="inlineStr"/>
       <c r="I23" s="37" t="inlineStr"/>
       <c r="J23" s="41" t="inlineStr"/>
+      <c r="K23" s="49" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="25" t="n">
@@ -1549,6 +1641,7 @@
       <c r="H24" s="41" t="inlineStr"/>
       <c r="I24" s="37" t="inlineStr"/>
       <c r="J24" s="41" t="inlineStr"/>
+      <c r="K24" s="49" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="25" t="n">
@@ -1589,8 +1682,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I25" s="37" t="inlineStr"/>
+      <c r="I25" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J25" s="41" t="inlineStr"/>
+      <c r="K25" s="49" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="25" t="n">
@@ -1637,6 +1735,7 @@
         </is>
       </c>
       <c r="J26" s="41" t="inlineStr"/>
+      <c r="K26" s="49" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="25" t="n">
@@ -1672,9 +1771,14 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H27" s="41" t="inlineStr"/>
+      <c r="H27" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I27" s="37" t="inlineStr"/>
       <c r="J27" s="41" t="inlineStr"/>
+      <c r="K27" s="49" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="25" t="n">
@@ -1713,6 +1817,7 @@
       </c>
       <c r="I28" s="37" t="inlineStr"/>
       <c r="J28" s="41" t="inlineStr"/>
+      <c r="K28" s="49" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="25" t="n">
@@ -1748,13 +1853,26 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="H29" s="41" t="inlineStr"/>
+      <c r="H29" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I29" s="42" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
-      <c r="J29" s="41" t="inlineStr"/>
+      <c r="J29" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K29" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="25" t="n">
@@ -1777,6 +1895,7 @@
       <c r="H30" s="41" t="inlineStr"/>
       <c r="I30" s="37" t="inlineStr"/>
       <c r="J30" s="41" t="inlineStr"/>
+      <c r="K30" s="49" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="25" t="n">
@@ -1807,6 +1926,7 @@
       <c r="H31" s="41" t="inlineStr"/>
       <c r="I31" s="37" t="inlineStr"/>
       <c r="J31" s="41" t="inlineStr"/>
+      <c r="K31" s="49" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="25" t="n">
@@ -1853,6 +1973,7 @@
         </is>
       </c>
       <c r="J32" s="41" t="inlineStr"/>
+      <c r="K32" s="49" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="25" t="n">
@@ -1875,6 +1996,7 @@
       <c r="H33" s="41" t="inlineStr"/>
       <c r="I33" s="37" t="inlineStr"/>
       <c r="J33" s="41" t="inlineStr"/>
+      <c r="K33" s="49" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="25" t="n">
@@ -1921,6 +2043,7 @@
         </is>
       </c>
       <c r="J34" s="41" t="inlineStr"/>
+      <c r="K34" s="49" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="25" t="n">
@@ -1948,9 +2071,18 @@
         </is>
       </c>
       <c r="G35" s="36" t="inlineStr"/>
-      <c r="H35" s="41" t="inlineStr"/>
-      <c r="I35" s="37" t="inlineStr"/>
+      <c r="H35" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="I35" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J35" s="41" t="inlineStr"/>
+      <c r="K35" s="49" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="25" t="n">
@@ -1991,8 +2123,21 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I36" s="37" t="inlineStr"/>
-      <c r="J36" s="41" t="inlineStr"/>
+      <c r="I36" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J36" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K36" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="25" t="n">
@@ -2031,6 +2176,7 @@
       <c r="H37" s="41" t="inlineStr"/>
       <c r="I37" s="37" t="inlineStr"/>
       <c r="J37" s="41" t="inlineStr"/>
+      <c r="K37" s="49" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="25" t="n">
@@ -2061,14 +2207,16 @@
       <c r="H38" s="41" t="inlineStr"/>
       <c r="I38" s="37" t="inlineStr"/>
       <c r="J38" s="41" t="inlineStr"/>
+      <c r="K38" s="49" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -1111,7 +1111,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I8" s="37" t="inlineStr"/>
+      <c r="I8" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J8" s="41" t="inlineStr"/>
       <c r="K8" s="49" t="inlineStr"/>
     </row>
@@ -1257,7 +1261,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K12" s="49" t="inlineStr"/>
+      <c r="K12" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="25" t="n">
@@ -1488,8 +1496,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I19" s="37" t="inlineStr"/>
-      <c r="J19" s="41" t="inlineStr"/>
+      <c r="I19" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="J19" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K19" s="49" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
@@ -1735,7 +1751,11 @@
         </is>
       </c>
       <c r="J26" s="41" t="inlineStr"/>
-      <c r="K26" s="49" t="inlineStr"/>
+      <c r="K26" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="25" t="n">
@@ -1776,7 +1796,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I27" s="37" t="inlineStr"/>
+      <c r="I27" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J27" s="41" t="inlineStr"/>
       <c r="K27" s="49" t="inlineStr"/>
     </row>
@@ -1815,7 +1839,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I28" s="37" t="inlineStr"/>
+      <c r="I28" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J28" s="41" t="inlineStr"/>
       <c r="K28" s="49" t="inlineStr"/>
     </row>
@@ -1924,7 +1952,11 @@
         </is>
       </c>
       <c r="H31" s="41" t="inlineStr"/>
-      <c r="I31" s="37" t="inlineStr"/>
+      <c r="I31" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J31" s="41" t="inlineStr"/>
       <c r="K31" s="49" t="inlineStr"/>
     </row>
@@ -1972,7 +2004,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J32" s="41" t="inlineStr"/>
+      <c r="J32" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K32" s="49" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
@@ -2206,7 +2242,11 @@
       <c r="G38" s="36" t="inlineStr"/>
       <c r="H38" s="41" t="inlineStr"/>
       <c r="I38" s="37" t="inlineStr"/>
-      <c r="J38" s="41" t="inlineStr"/>
+      <c r="J38" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K38" s="49" t="inlineStr"/>
     </row>
   </sheetData>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -52,7 +52,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -112,6 +112,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="008ef5f3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0038e8e5"/>
       </patternFill>
     </fill>
   </fills>
@@ -274,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -408,6 +413,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,7 +764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H9" sqref="A1:I38"/>
@@ -813,6 +824,7 @@
           <t>Minggu Ke-14</t>
         </is>
       </c>
+      <c r="L1" s="47" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="30" t="n"/>
@@ -862,6 +874,11 @@
           <t>Tugas 1</t>
         </is>
       </c>
+      <c r="L2" s="48" t="inlineStr">
+        <is>
+          <t>Tugas 2</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="34" t="n"/>
@@ -911,6 +928,11 @@
           <t>MAT14</t>
         </is>
       </c>
+      <c r="L3" s="49" t="inlineStr">
+        <is>
+          <t>BINDO7</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="25" t="n">
@@ -962,6 +984,7 @@
         </is>
       </c>
       <c r="K4" s="49" t="inlineStr"/>
+      <c r="L4" s="51" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="25" t="n">
@@ -1005,6 +1028,7 @@
       <c r="I5" s="37" t="inlineStr"/>
       <c r="J5" s="41" t="inlineStr"/>
       <c r="K5" s="49" t="inlineStr"/>
+      <c r="L5" s="51" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="25" t="n">
@@ -1052,6 +1076,7 @@
       </c>
       <c r="J6" s="41" t="inlineStr"/>
       <c r="K6" s="49" t="inlineStr"/>
+      <c r="L6" s="51" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="25" t="n">
@@ -1071,6 +1096,7 @@
       <c r="I7" s="37" t="inlineStr"/>
       <c r="J7" s="41" t="inlineStr"/>
       <c r="K7" s="49" t="inlineStr"/>
+      <c r="L7" s="51" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="25" t="n">
@@ -1116,8 +1142,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J8" s="41" t="inlineStr"/>
+      <c r="J8" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K8" s="49" t="inlineStr"/>
+      <c r="L8" s="51" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="25" t="n">
@@ -1141,6 +1172,7 @@
       <c r="I9" s="37" t="inlineStr"/>
       <c r="J9" s="41" t="inlineStr"/>
       <c r="K9" s="49" t="inlineStr"/>
+      <c r="L9" s="51" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="25" t="n">
@@ -1192,6 +1224,7 @@
         </is>
       </c>
       <c r="K10" s="49" t="inlineStr"/>
+      <c r="L10" s="51" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="25" t="n">
@@ -1211,6 +1244,7 @@
       <c r="I11" s="37" t="inlineStr"/>
       <c r="J11" s="41" t="inlineStr"/>
       <c r="K11" s="49" t="inlineStr"/>
+      <c r="L11" s="51" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="25" t="n">
@@ -1262,6 +1296,11 @@
         </is>
       </c>
       <c r="K12" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L12" s="52" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -1285,6 +1324,7 @@
       <c r="I13" s="37" t="inlineStr"/>
       <c r="J13" s="41" t="inlineStr"/>
       <c r="K13" s="49" t="inlineStr"/>
+      <c r="L13" s="51" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="25" t="n">
@@ -1336,6 +1376,7 @@
         </is>
       </c>
       <c r="K14" s="49" t="inlineStr"/>
+      <c r="L14" s="51" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="25" t="n">
@@ -1381,8 +1422,13 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J15" s="41" t="inlineStr"/>
+      <c r="J15" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K15" s="49" t="inlineStr"/>
+      <c r="L15" s="51" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="25" t="n">
@@ -1414,6 +1460,7 @@
       </c>
       <c r="J16" s="41" t="inlineStr"/>
       <c r="K16" s="49" t="inlineStr"/>
+      <c r="L16" s="51" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="25" t="n">
@@ -1433,6 +1480,7 @@
       <c r="I17" s="37" t="inlineStr"/>
       <c r="J17" s="41" t="inlineStr"/>
       <c r="K17" s="49" t="inlineStr"/>
+      <c r="L17" s="51" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="25" t="n">
@@ -1456,6 +1504,7 @@
       <c r="I18" s="37" t="inlineStr"/>
       <c r="J18" s="41" t="inlineStr"/>
       <c r="K18" s="49" t="inlineStr"/>
+      <c r="L18" s="51" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="25" t="n">
@@ -1507,6 +1556,11 @@
         </is>
       </c>
       <c r="K19" s="49" t="inlineStr"/>
+      <c r="L19" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="25" t="n">
@@ -1547,9 +1601,14 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I20" s="37" t="inlineStr"/>
+      <c r="I20" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J20" s="41" t="inlineStr"/>
       <c r="K20" s="49" t="inlineStr"/>
+      <c r="L20" s="51" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="25" t="n">
@@ -1577,6 +1636,7 @@
         </is>
       </c>
       <c r="K21" s="49" t="inlineStr"/>
+      <c r="L21" s="51" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="25" t="n">
@@ -1616,6 +1676,7 @@
         </is>
       </c>
       <c r="K22" s="49" t="inlineStr"/>
+      <c r="L22" s="51" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="25" t="n">
@@ -1639,6 +1700,7 @@
       <c r="I23" s="37" t="inlineStr"/>
       <c r="J23" s="41" t="inlineStr"/>
       <c r="K23" s="49" t="inlineStr"/>
+      <c r="L23" s="51" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="25" t="n">
@@ -1658,6 +1720,7 @@
       <c r="I24" s="37" t="inlineStr"/>
       <c r="J24" s="41" t="inlineStr"/>
       <c r="K24" s="49" t="inlineStr"/>
+      <c r="L24" s="51" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="25" t="n">
@@ -1703,8 +1766,17 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J25" s="41" t="inlineStr"/>
+      <c r="J25" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K25" s="49" t="inlineStr"/>
+      <c r="L25" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="25" t="n">
@@ -1750,12 +1822,17 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J26" s="41" t="inlineStr"/>
+      <c r="J26" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K26" s="50" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
+      <c r="L26" s="51" t="inlineStr"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="25" t="n">
@@ -1803,6 +1880,7 @@
       </c>
       <c r="J27" s="41" t="inlineStr"/>
       <c r="K27" s="49" t="inlineStr"/>
+      <c r="L27" s="51" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="25" t="n">
@@ -1846,6 +1924,7 @@
       </c>
       <c r="J28" s="41" t="inlineStr"/>
       <c r="K28" s="49" t="inlineStr"/>
+      <c r="L28" s="51" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="25" t="n">
@@ -1901,6 +1980,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="L29" s="51" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="25" t="n">
@@ -1924,6 +2004,7 @@
       <c r="I30" s="37" t="inlineStr"/>
       <c r="J30" s="41" t="inlineStr"/>
       <c r="K30" s="49" t="inlineStr"/>
+      <c r="L30" s="51" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="25" t="n">
@@ -1959,6 +2040,7 @@
       </c>
       <c r="J31" s="41" t="inlineStr"/>
       <c r="K31" s="49" t="inlineStr"/>
+      <c r="L31" s="51" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="25" t="n">
@@ -2010,6 +2092,7 @@
         </is>
       </c>
       <c r="K32" s="49" t="inlineStr"/>
+      <c r="L32" s="51" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="25" t="n">
@@ -2033,6 +2116,7 @@
       <c r="I33" s="37" t="inlineStr"/>
       <c r="J33" s="41" t="inlineStr"/>
       <c r="K33" s="49" t="inlineStr"/>
+      <c r="L33" s="51" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="25" t="n">
@@ -2080,6 +2164,7 @@
       </c>
       <c r="J34" s="41" t="inlineStr"/>
       <c r="K34" s="49" t="inlineStr"/>
+      <c r="L34" s="51" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="25" t="n">
@@ -2119,6 +2204,7 @@
       </c>
       <c r="J35" s="41" t="inlineStr"/>
       <c r="K35" s="49" t="inlineStr"/>
+      <c r="L35" s="51" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="25" t="n">
@@ -2170,6 +2256,11 @@
         </is>
       </c>
       <c r="K36" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L36" s="52" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
@@ -2213,6 +2304,7 @@
       <c r="I37" s="37" t="inlineStr"/>
       <c r="J37" s="41" t="inlineStr"/>
       <c r="K37" s="49" t="inlineStr"/>
+      <c r="L37" s="51" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="25" t="n">
@@ -2248,6 +2340,7 @@
         </is>
       </c>
       <c r="K38" s="49" t="inlineStr"/>
+      <c r="L38" s="51" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2256,7 +2349,7 @@
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -764,7 +764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H9" sqref="A1:I38"/>
@@ -825,6 +825,7 @@
         </is>
       </c>
       <c r="L1" s="47" t="n"/>
+      <c r="M1" s="47" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="30" t="n"/>
@@ -879,6 +880,11 @@
           <t>Tugas 2</t>
         </is>
       </c>
+      <c r="M2" s="48" t="inlineStr">
+        <is>
+          <t>Tugas 3</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="34" t="n"/>
@@ -933,6 +939,11 @@
           <t>BINDO7</t>
         </is>
       </c>
+      <c r="M3" s="49" t="inlineStr">
+        <is>
+          <t>BASDA4</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="25" t="n">
@@ -985,6 +996,7 @@
       </c>
       <c r="K4" s="49" t="inlineStr"/>
       <c r="L4" s="51" t="inlineStr"/>
+      <c r="M4" s="49" t="inlineStr"/>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="25" t="n">
@@ -1029,6 +1041,7 @@
       <c r="J5" s="41" t="inlineStr"/>
       <c r="K5" s="49" t="inlineStr"/>
       <c r="L5" s="51" t="inlineStr"/>
+      <c r="M5" s="49" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="25" t="n">
@@ -1074,9 +1087,18 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J6" s="41" t="inlineStr"/>
+      <c r="J6" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K6" s="49" t="inlineStr"/>
-      <c r="L6" s="51" t="inlineStr"/>
+      <c r="L6" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M6" s="49" t="inlineStr"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="25" t="n">
@@ -1097,6 +1119,7 @@
       <c r="J7" s="41" t="inlineStr"/>
       <c r="K7" s="49" t="inlineStr"/>
       <c r="L7" s="51" t="inlineStr"/>
+      <c r="M7" s="49" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="25" t="n">
@@ -1149,6 +1172,7 @@
       </c>
       <c r="K8" s="49" t="inlineStr"/>
       <c r="L8" s="51" t="inlineStr"/>
+      <c r="M8" s="49" t="inlineStr"/>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="25" t="n">
@@ -1173,6 +1197,7 @@
       <c r="J9" s="41" t="inlineStr"/>
       <c r="K9" s="49" t="inlineStr"/>
       <c r="L9" s="51" t="inlineStr"/>
+      <c r="M9" s="49" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="25" t="n">
@@ -1225,6 +1250,7 @@
       </c>
       <c r="K10" s="49" t="inlineStr"/>
       <c r="L10" s="51" t="inlineStr"/>
+      <c r="M10" s="49" t="inlineStr"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="25" t="n">
@@ -1245,6 +1271,7 @@
       <c r="J11" s="41" t="inlineStr"/>
       <c r="K11" s="49" t="inlineStr"/>
       <c r="L11" s="51" t="inlineStr"/>
+      <c r="M11" s="49" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="25" t="n">
@@ -1305,6 +1332,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="M12" s="49" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="25" t="n">
@@ -1322,9 +1350,14 @@
       <c r="G13" s="36" t="inlineStr"/>
       <c r="H13" s="41" t="inlineStr"/>
       <c r="I13" s="37" t="inlineStr"/>
-      <c r="J13" s="41" t="inlineStr"/>
+      <c r="J13" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K13" s="49" t="inlineStr"/>
       <c r="L13" s="51" t="inlineStr"/>
+      <c r="M13" s="49" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="25" t="n">
@@ -1377,6 +1410,7 @@
       </c>
       <c r="K14" s="49" t="inlineStr"/>
       <c r="L14" s="51" t="inlineStr"/>
+      <c r="M14" s="49" t="inlineStr"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="25" t="n">
@@ -1428,7 +1462,12 @@
         </is>
       </c>
       <c r="K15" s="49" t="inlineStr"/>
-      <c r="L15" s="51" t="inlineStr"/>
+      <c r="L15" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M15" s="49" t="inlineStr"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="25" t="n">
@@ -1458,9 +1497,14 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J16" s="41" t="inlineStr"/>
+      <c r="J16" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K16" s="49" t="inlineStr"/>
       <c r="L16" s="51" t="inlineStr"/>
+      <c r="M16" s="49" t="inlineStr"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="25" t="n">
@@ -1478,9 +1522,14 @@
       <c r="G17" s="36" t="inlineStr"/>
       <c r="H17" s="41" t="inlineStr"/>
       <c r="I17" s="37" t="inlineStr"/>
-      <c r="J17" s="41" t="inlineStr"/>
+      <c r="J17" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K17" s="49" t="inlineStr"/>
       <c r="L17" s="51" t="inlineStr"/>
+      <c r="M17" s="49" t="inlineStr"/>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="25" t="n">
@@ -1493,7 +1542,11 @@
       </c>
       <c r="C18" s="35" t="inlineStr"/>
       <c r="D18" s="43" t="inlineStr"/>
-      <c r="E18" s="35" t="inlineStr"/>
+      <c r="E18" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F18" s="39" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1501,10 +1554,15 @@
       </c>
       <c r="G18" s="36" t="inlineStr"/>
       <c r="H18" s="41" t="inlineStr"/>
-      <c r="I18" s="37" t="inlineStr"/>
+      <c r="I18" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J18" s="41" t="inlineStr"/>
       <c r="K18" s="49" t="inlineStr"/>
       <c r="L18" s="51" t="inlineStr"/>
+      <c r="M18" s="49" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="25" t="n">
@@ -1561,6 +1619,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="M19" s="49" t="inlineStr"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="25" t="n">
@@ -1609,6 +1668,7 @@
       <c r="J20" s="41" t="inlineStr"/>
       <c r="K20" s="49" t="inlineStr"/>
       <c r="L20" s="51" t="inlineStr"/>
+      <c r="M20" s="49" t="inlineStr"/>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="25" t="n">
@@ -1637,6 +1697,7 @@
       </c>
       <c r="K21" s="49" t="inlineStr"/>
       <c r="L21" s="51" t="inlineStr"/>
+      <c r="M21" s="49" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="25" t="n">
@@ -1677,6 +1738,7 @@
       </c>
       <c r="K22" s="49" t="inlineStr"/>
       <c r="L22" s="51" t="inlineStr"/>
+      <c r="M22" s="49" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="25" t="n">
@@ -1701,6 +1763,7 @@
       <c r="J23" s="41" t="inlineStr"/>
       <c r="K23" s="49" t="inlineStr"/>
       <c r="L23" s="51" t="inlineStr"/>
+      <c r="M23" s="49" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="25" t="n">
@@ -1721,6 +1784,7 @@
       <c r="J24" s="41" t="inlineStr"/>
       <c r="K24" s="49" t="inlineStr"/>
       <c r="L24" s="51" t="inlineStr"/>
+      <c r="M24" s="49" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="25" t="n">
@@ -1777,6 +1841,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="M25" s="49" t="inlineStr"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="25" t="n">
@@ -1832,7 +1897,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="L26" s="51" t="inlineStr"/>
+      <c r="L26" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M26" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="25" t="n">
@@ -1878,9 +1952,18 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J27" s="41" t="inlineStr"/>
+      <c r="J27" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K27" s="49" t="inlineStr"/>
-      <c r="L27" s="51" t="inlineStr"/>
+      <c r="L27" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M27" s="49" t="inlineStr"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="25" t="n">
@@ -1925,6 +2008,7 @@
       <c r="J28" s="41" t="inlineStr"/>
       <c r="K28" s="49" t="inlineStr"/>
       <c r="L28" s="51" t="inlineStr"/>
+      <c r="M28" s="49" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="25" t="n">
@@ -1981,6 +2065,7 @@
         </is>
       </c>
       <c r="L29" s="51" t="inlineStr"/>
+      <c r="M29" s="49" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="25" t="n">
@@ -2005,6 +2090,7 @@
       <c r="J30" s="41" t="inlineStr"/>
       <c r="K30" s="49" t="inlineStr"/>
       <c r="L30" s="51" t="inlineStr"/>
+      <c r="M30" s="49" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="25" t="n">
@@ -2041,6 +2127,7 @@
       <c r="J31" s="41" t="inlineStr"/>
       <c r="K31" s="49" t="inlineStr"/>
       <c r="L31" s="51" t="inlineStr"/>
+      <c r="M31" s="49" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="25" t="n">
@@ -2091,8 +2178,17 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K32" s="49" t="inlineStr"/>
-      <c r="L32" s="51" t="inlineStr"/>
+      <c r="K32" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L32" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M32" s="49" t="inlineStr"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="25" t="n">
@@ -2114,9 +2210,14 @@
       <c r="G33" s="36" t="inlineStr"/>
       <c r="H33" s="41" t="inlineStr"/>
       <c r="I33" s="37" t="inlineStr"/>
-      <c r="J33" s="41" t="inlineStr"/>
+      <c r="J33" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K33" s="49" t="inlineStr"/>
       <c r="L33" s="51" t="inlineStr"/>
+      <c r="M33" s="49" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="25" t="n">
@@ -2165,6 +2266,7 @@
       <c r="J34" s="41" t="inlineStr"/>
       <c r="K34" s="49" t="inlineStr"/>
       <c r="L34" s="51" t="inlineStr"/>
+      <c r="M34" s="49" t="inlineStr"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="25" t="n">
@@ -2191,7 +2293,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="G35" s="36" t="inlineStr"/>
+      <c r="G35" s="40" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="H35" s="44" t="inlineStr">
         <is>
           <t>ü</t>
@@ -2202,9 +2308,18 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J35" s="41" t="inlineStr"/>
+      <c r="J35" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K35" s="49" t="inlineStr"/>
-      <c r="L35" s="51" t="inlineStr"/>
+      <c r="L35" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M35" s="49" t="inlineStr"/>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="25" t="n">
@@ -2265,6 +2380,7 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="M36" s="49" t="inlineStr"/>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="25" t="n">
@@ -2302,9 +2418,14 @@
       </c>
       <c r="H37" s="41" t="inlineStr"/>
       <c r="I37" s="37" t="inlineStr"/>
-      <c r="J37" s="41" t="inlineStr"/>
+      <c r="J37" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K37" s="49" t="inlineStr"/>
       <c r="L37" s="51" t="inlineStr"/>
+      <c r="M37" s="49" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="25" t="n">
@@ -2341,6 +2462,7 @@
       </c>
       <c r="K38" s="49" t="inlineStr"/>
       <c r="L38" s="51" t="inlineStr"/>
+      <c r="M38" s="49" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2349,7 +2471,7 @@
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -764,7 +764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H9" sqref="A1:I38"/>
@@ -826,6 +826,7 @@
       </c>
       <c r="L1" s="47" t="n"/>
       <c r="M1" s="47" t="n"/>
+      <c r="N1" s="47" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="30" t="n"/>
@@ -885,6 +886,11 @@
           <t>Tugas 3</t>
         </is>
       </c>
+      <c r="N2" s="48" t="inlineStr">
+        <is>
+          <t>Tugas 4</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
       <c r="A3" s="34" t="n"/>
@@ -944,6 +950,11 @@
           <t>BASDA4</t>
         </is>
       </c>
+      <c r="N3" s="49" t="inlineStr">
+        <is>
+          <t>PKK7</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.6" customHeight="1">
       <c r="A4" s="25" t="n">
@@ -997,6 +1008,11 @@
       <c r="K4" s="49" t="inlineStr"/>
       <c r="L4" s="51" t="inlineStr"/>
       <c r="M4" s="49" t="inlineStr"/>
+      <c r="N4" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.6" customHeight="1">
       <c r="A5" s="25" t="n">
@@ -1038,10 +1054,15 @@
         </is>
       </c>
       <c r="I5" s="37" t="inlineStr"/>
-      <c r="J5" s="41" t="inlineStr"/>
+      <c r="J5" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K5" s="49" t="inlineStr"/>
       <c r="L5" s="51" t="inlineStr"/>
       <c r="M5" s="49" t="inlineStr"/>
+      <c r="N5" s="51" t="inlineStr"/>
     </row>
     <row r="6" ht="15.6" customHeight="1">
       <c r="A6" s="25" t="n">
@@ -1099,6 +1120,11 @@
         </is>
       </c>
       <c r="M6" s="49" t="inlineStr"/>
+      <c r="N6" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" s="25" t="n">
@@ -1120,6 +1146,7 @@
       <c r="K7" s="49" t="inlineStr"/>
       <c r="L7" s="51" t="inlineStr"/>
       <c r="M7" s="49" t="inlineStr"/>
+      <c r="N7" s="51" t="inlineStr"/>
     </row>
     <row r="8" ht="15.6" customHeight="1">
       <c r="A8" s="25" t="n">
@@ -1170,9 +1197,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K8" s="49" t="inlineStr"/>
-      <c r="L8" s="51" t="inlineStr"/>
+      <c r="K8" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L8" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M8" s="49" t="inlineStr"/>
+      <c r="N8" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.6" customHeight="1">
       <c r="A9" s="25" t="n">
@@ -1198,6 +1238,7 @@
       <c r="K9" s="49" t="inlineStr"/>
       <c r="L9" s="51" t="inlineStr"/>
       <c r="M9" s="49" t="inlineStr"/>
+      <c r="N9" s="51" t="inlineStr"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
       <c r="A10" s="25" t="n">
@@ -1251,6 +1292,11 @@
       <c r="K10" s="49" t="inlineStr"/>
       <c r="L10" s="51" t="inlineStr"/>
       <c r="M10" s="49" t="inlineStr"/>
+      <c r="N10" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.6" customHeight="1">
       <c r="A11" s="25" t="n">
@@ -1268,10 +1314,15 @@
       <c r="G11" s="36" t="inlineStr"/>
       <c r="H11" s="41" t="inlineStr"/>
       <c r="I11" s="37" t="inlineStr"/>
-      <c r="J11" s="41" t="inlineStr"/>
+      <c r="J11" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K11" s="49" t="inlineStr"/>
       <c r="L11" s="51" t="inlineStr"/>
       <c r="M11" s="49" t="inlineStr"/>
+      <c r="N11" s="51" t="inlineStr"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="25" t="n">
@@ -1333,6 +1384,7 @@
         </is>
       </c>
       <c r="M12" s="49" t="inlineStr"/>
+      <c r="N12" s="51" t="inlineStr"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
       <c r="A13" s="25" t="n">
@@ -1358,6 +1410,7 @@
       <c r="K13" s="49" t="inlineStr"/>
       <c r="L13" s="51" t="inlineStr"/>
       <c r="M13" s="49" t="inlineStr"/>
+      <c r="N13" s="51" t="inlineStr"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="25" t="n">
@@ -1408,9 +1461,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K14" s="49" t="inlineStr"/>
-      <c r="L14" s="51" t="inlineStr"/>
+      <c r="K14" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L14" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M14" s="49" t="inlineStr"/>
+      <c r="N14" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customHeight="1">
       <c r="A15" s="25" t="n">
@@ -1461,13 +1527,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K15" s="49" t="inlineStr"/>
+      <c r="K15" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L15" s="52" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="M15" s="49" t="inlineStr"/>
+      <c r="N15" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="25" t="n">
@@ -1505,6 +1580,11 @@
       <c r="K16" s="49" t="inlineStr"/>
       <c r="L16" s="51" t="inlineStr"/>
       <c r="M16" s="49" t="inlineStr"/>
+      <c r="N16" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.6" customHeight="1">
       <c r="A17" s="25" t="n">
@@ -1530,6 +1610,11 @@
       <c r="K17" s="49" t="inlineStr"/>
       <c r="L17" s="51" t="inlineStr"/>
       <c r="M17" s="49" t="inlineStr"/>
+      <c r="N17" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customHeight="1">
       <c r="A18" s="25" t="n">
@@ -1563,6 +1648,7 @@
       <c r="K18" s="49" t="inlineStr"/>
       <c r="L18" s="51" t="inlineStr"/>
       <c r="M18" s="49" t="inlineStr"/>
+      <c r="N18" s="51" t="inlineStr"/>
     </row>
     <row r="19" ht="15.6" customHeight="1">
       <c r="A19" s="25" t="n">
@@ -1620,6 +1706,11 @@
         </is>
       </c>
       <c r="M19" s="49" t="inlineStr"/>
+      <c r="N19" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.6" customHeight="1">
       <c r="A20" s="25" t="n">
@@ -1665,10 +1756,31 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J20" s="41" t="inlineStr"/>
-      <c r="K20" s="49" t="inlineStr"/>
-      <c r="L20" s="51" t="inlineStr"/>
-      <c r="M20" s="49" t="inlineStr"/>
+      <c r="J20" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="K20" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L20" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="M20" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N20" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customHeight="1">
       <c r="A21" s="25" t="n">
@@ -1698,6 +1810,7 @@
       <c r="K21" s="49" t="inlineStr"/>
       <c r="L21" s="51" t="inlineStr"/>
       <c r="M21" s="49" t="inlineStr"/>
+      <c r="N21" s="51" t="inlineStr"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
       <c r="A22" s="25" t="n">
@@ -1730,7 +1843,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="I22" s="37" t="inlineStr"/>
+      <c r="I22" s="42" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="J22" s="44" t="inlineStr">
         <is>
           <t>ü</t>
@@ -1739,6 +1856,7 @@
       <c r="K22" s="49" t="inlineStr"/>
       <c r="L22" s="51" t="inlineStr"/>
       <c r="M22" s="49" t="inlineStr"/>
+      <c r="N22" s="51" t="inlineStr"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="25" t="n">
@@ -1764,6 +1882,7 @@
       <c r="K23" s="49" t="inlineStr"/>
       <c r="L23" s="51" t="inlineStr"/>
       <c r="M23" s="49" t="inlineStr"/>
+      <c r="N23" s="51" t="inlineStr"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="25" t="n">
@@ -1785,6 +1904,7 @@
       <c r="K24" s="49" t="inlineStr"/>
       <c r="L24" s="51" t="inlineStr"/>
       <c r="M24" s="49" t="inlineStr"/>
+      <c r="N24" s="51" t="inlineStr"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
       <c r="A25" s="25" t="n">
@@ -1835,13 +1955,22 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K25" s="49" t="inlineStr"/>
+      <c r="K25" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="L25" s="52" t="inlineStr">
         <is>
           <t>ü</t>
         </is>
       </c>
       <c r="M25" s="49" t="inlineStr"/>
+      <c r="N25" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="25" t="n">
@@ -1907,6 +2036,11 @@
           <t>ü</t>
         </is>
       </c>
+      <c r="N26" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.6" customHeight="1">
       <c r="A27" s="25" t="n">
@@ -1964,6 +2098,11 @@
         </is>
       </c>
       <c r="M27" s="49" t="inlineStr"/>
+      <c r="N27" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="25" t="n">
@@ -2009,6 +2148,7 @@
       <c r="K28" s="49" t="inlineStr"/>
       <c r="L28" s="51" t="inlineStr"/>
       <c r="M28" s="49" t="inlineStr"/>
+      <c r="N28" s="51" t="inlineStr"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="25" t="n">
@@ -2066,6 +2206,7 @@
       </c>
       <c r="L29" s="51" t="inlineStr"/>
       <c r="M29" s="49" t="inlineStr"/>
+      <c r="N29" s="51" t="inlineStr"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="25" t="n">
@@ -2091,6 +2232,7 @@
       <c r="K30" s="49" t="inlineStr"/>
       <c r="L30" s="51" t="inlineStr"/>
       <c r="M30" s="49" t="inlineStr"/>
+      <c r="N30" s="51" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
       <c r="A31" s="25" t="n">
@@ -2128,6 +2270,7 @@
       <c r="K31" s="49" t="inlineStr"/>
       <c r="L31" s="51" t="inlineStr"/>
       <c r="M31" s="49" t="inlineStr"/>
+      <c r="N31" s="51" t="inlineStr"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="25" t="n">
@@ -2189,6 +2332,11 @@
         </is>
       </c>
       <c r="M32" s="49" t="inlineStr"/>
+      <c r="N32" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="15.6" customHeight="1">
       <c r="A33" s="25" t="n">
@@ -2218,6 +2366,7 @@
       <c r="K33" s="49" t="inlineStr"/>
       <c r="L33" s="51" t="inlineStr"/>
       <c r="M33" s="49" t="inlineStr"/>
+      <c r="N33" s="51" t="inlineStr"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
       <c r="A34" s="25" t="n">
@@ -2263,10 +2412,23 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="J34" s="41" t="inlineStr"/>
+      <c r="J34" s="44" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="K34" s="49" t="inlineStr"/>
-      <c r="L34" s="51" t="inlineStr"/>
+      <c r="L34" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M34" s="49" t="inlineStr"/>
+      <c r="N34" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customHeight="1">
       <c r="A35" s="25" t="n">
@@ -2320,6 +2482,11 @@
         </is>
       </c>
       <c r="M35" s="49" t="inlineStr"/>
+      <c r="N35" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customHeight="1">
       <c r="A36" s="25" t="n">
@@ -2380,7 +2547,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="M36" s="49" t="inlineStr"/>
+      <c r="M36" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N36" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customHeight="1">
       <c r="A37" s="25" t="n">
@@ -2426,6 +2602,7 @@
       <c r="K37" s="49" t="inlineStr"/>
       <c r="L37" s="51" t="inlineStr"/>
       <c r="M37" s="49" t="inlineStr"/>
+      <c r="N37" s="51" t="inlineStr"/>
     </row>
     <row r="38" ht="15.6" customHeight="1">
       <c r="A38" s="25" t="n">
@@ -2462,7 +2639,12 @@
       </c>
       <c r="K38" s="49" t="inlineStr"/>
       <c r="L38" s="51" t="inlineStr"/>
-      <c r="M38" s="49" t="inlineStr"/>
+      <c r="M38" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N38" s="51" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2471,7 +2653,7 @@
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -1597,7 +1597,11 @@
       </c>
       <c r="C17" s="35" t="inlineStr"/>
       <c r="D17" s="43" t="inlineStr"/>
-      <c r="E17" s="35" t="inlineStr"/>
+      <c r="E17" s="38" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="F17" s="43" t="inlineStr"/>
       <c r="G17" s="36" t="inlineStr"/>
       <c r="H17" s="41" t="inlineStr"/>
@@ -1608,7 +1612,11 @@
         </is>
       </c>
       <c r="K17" s="49" t="inlineStr"/>
-      <c r="L17" s="51" t="inlineStr"/>
+      <c r="L17" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M17" s="49" t="inlineStr"/>
       <c r="N17" s="52" t="inlineStr">
         <is>
@@ -1855,8 +1863,16 @@
       </c>
       <c r="K22" s="49" t="inlineStr"/>
       <c r="L22" s="51" t="inlineStr"/>
-      <c r="M22" s="49" t="inlineStr"/>
-      <c r="N22" s="51" t="inlineStr"/>
+      <c r="M22" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="N22" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.6" customHeight="1">
       <c r="A23" s="25" t="n">
@@ -2148,7 +2164,11 @@
       <c r="K28" s="49" t="inlineStr"/>
       <c r="L28" s="51" t="inlineStr"/>
       <c r="M28" s="49" t="inlineStr"/>
-      <c r="N28" s="51" t="inlineStr"/>
+      <c r="N28" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customHeight="1">
       <c r="A29" s="25" t="n">

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -1289,8 +1289,16 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="K10" s="49" t="inlineStr"/>
-      <c r="L10" s="51" t="inlineStr"/>
+      <c r="K10" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
+      <c r="L10" s="52" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="M10" s="49" t="inlineStr"/>
       <c r="N10" s="52" t="inlineStr">
         <is>
@@ -2351,7 +2359,11 @@
           <t>ü</t>
         </is>
       </c>
-      <c r="M32" s="49" t="inlineStr"/>
+      <c r="M32" s="50" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="N32" s="52" t="inlineStr">
         <is>
           <t>ü</t>

--- a/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
+++ b/Excel/Bulanan/Excel/List Tugas Bulanan Ke-3 (4 Oktober 2021 - 8 November 2021).xlsx
@@ -804,9 +804,9 @@
           <t>Minggu Ke-11</t>
         </is>
       </c>
-      <c r="D1" s="27" t="n"/>
-      <c r="E1" s="27" t="n"/>
-      <c r="F1" s="27" t="n"/>
+      <c r="D1" s="45" t="n"/>
+      <c r="E1" s="45" t="n"/>
+      <c r="F1" s="46" t="n"/>
       <c r="G1" s="28" t="inlineStr">
         <is>
           <t>Minggu Ke-12</t>
@@ -817,20 +817,20 @@
           <t>Minggu Ke-13</t>
         </is>
       </c>
-      <c r="I1" s="29" t="n"/>
-      <c r="J1" s="29" t="n"/>
+      <c r="I1" s="45" t="n"/>
+      <c r="J1" s="46" t="n"/>
       <c r="K1" s="47" t="inlineStr">
         <is>
           <t>Minggu Ke-14</t>
         </is>
       </c>
-      <c r="L1" s="47" t="n"/>
-      <c r="M1" s="47" t="n"/>
-      <c r="N1" s="47" t="n"/>
+      <c r="L1" s="45" t="n"/>
+      <c r="M1" s="45" t="n"/>
+      <c r="N1" s="46" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="30" t="n"/>
-      <c r="B2" s="30" t="n"/>
+      <c r="A2" s="25" t="n"/>
+      <c r="B2" s="25" t="n"/>
       <c r="C2" s="31" t="inlineStr">
         <is>
           <t>Tugas 1</t>
@@ -893,8 +893,8 @@
       </c>
     </row>
     <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="34" t="n"/>
-      <c r="B3" s="34" t="n"/>
+      <c r="A3" s="25" t="n"/>
+      <c r="B3" s="26" t="n"/>
       <c r="C3" s="35" t="inlineStr">
         <is>
           <t>MAT11</t>
